--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Kế hoạch" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>Description</t>
   </si>
@@ -202,12 +202,151 @@
   <si>
     <t>Force close sau khi back ở màn hình view detail</t>
   </si>
+  <si>
+    <t>Kế hoạch</t>
+  </si>
+  <si>
+    <t>Show MSG "Input total budget" khi save 1 bản ghi mới đã điền đầy đủ thông tin cần thiết</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Kế hoạch" tạo mới 1 bản ghi
+2. Trong trường "Tổng" nhập 1 dãy số &gt;19 số
+3. Click vào button "Save"
+-&gt; Bug: Show MSG "Input total budget" và không cho save</t>
+  </si>
+  <si>
+    <t>Chỉ cho phép user nhập đc tối đa 12 số và vẫn phải save thành công</t>
+  </si>
+  <si>
+    <t>View detail (View list) không đúng với những gì user đã input</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Kế hoạch" tạo mới 1 bản ghi
+2. Trong trường "Tổng" nhập 1 dãy số &gt;15 số 
+ex: 123456789123456789
+3. Click vào button "Save"
+4. Vào view detail (or view list), xem lại bản ghi vừa save.
+-&gt; Bug: Thông tin về tổng ngân sách được hiển thị như sau : 123456789123457000 (hện tại đang làm tròn)</t>
+  </si>
+  <si>
+    <t>Phải save và view đúng những gì user đã input</t>
+  </si>
+  <si>
+    <t>Phần tính Trung bình ở cuối màn hình View detail k scroll đc, bị mất thông tin</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Kế hoạch" tạo mới 1 bản ghi
+2. Trong trường "Tổng" nhập 1 dãy số lớn
+3. Click vào button "Save"
+4. Sau khi save, vào view detail lại bản ghi vừa save
+-&gt; Bug: Phần tính Trung bình ở cuối màn hình View detail k scroll đc, không hiển thị đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>Nếu thông tin ở phần này dài và nhiều, user có thể scroll để xem đc đầy đủ thông tin cần thiết</t>
+  </si>
+  <si>
+    <t>Tạo mới 1 category, có thể nhập k giới hạn ký tự</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Kế hoạch" tạo mới 1 bản ghi
+2. Trong trường "Category" chọn "Khác"
+3. Input tên mới cho Category
+-&gt; Bug: Có thể nhập không giới hạn ký tự khi user tự tạo mới 1 category</t>
+  </si>
+  <si>
+    <t>Chỉ cho phép user nhập đc tối đa 25 ký tự</t>
+  </si>
+  <si>
+    <t>User tạo mới có 2 category trung nhau, khi save, hệ thống k merge lại thành 1</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Kế hoạch" tạo mới 1 bản ghi
+2. Nhập 2 lần category có tên là "Birthday"
+3. Click button "Save"
+4. Vao view detail lại bản ghi vừa save
+-&gt; Bug: Hệ thống k tự động merge những Category trùng nhau vào thành 1</t>
+  </si>
+  <si>
+    <t>Nếu user tạo có 2 category trùng nhau, sau khi save, hệ thống phải merge lại thành 1 category</t>
+  </si>
+  <si>
+    <t>Khi user tự tạo mới 1 category đã có trong hệ thống, hệ thống vẫn cho tạo mà không thông báo category đã tồn tại</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Kế hoạch" tạo mới 1 bản ghi
+2. Trong trường category, chọn "Khác" và input "gam"
+3. Click button "Save"
+4. Vao Edit bản ghi vừa tạo hoặc tạo mới 1 bản ghi khác
+5. Trong trường Category chọn "Khác" và input "gam"
+6. Click button "Save"
+-&gt; Bug: Vẫn cho save thành công, và trong Category sẽ có 2 cái cùng tên "gam"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nếu user tạo 1 category đã tồn tại, hệ thống phải thông báo là category đấy đã tồn tại và không cho phép user tạo tiếp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: Category không phân biệt chữ in hoa hay chữ thường </t>
+    </r>
+  </si>
+  <si>
+    <t>Edit 1 bản ghi từ tuần sang tháng, báo save thành công nhưng khi view lại không thấy</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Kế hoạch" tạo mới thành công 2 bản ghi như sau:
+   - 1 bản ghi là kế hoạch trong tháng này
+   - 1 bản ghi là kế hoạch trong tuần này
+2. Vào edit bản ghi kế hoạch trong tuần sang tháng
+3. Click button "Save"
+-&gt; Bug: Hệ thống thông báo update 1 bản ghi thành công và sau khi save, vẫn đang ở trang view detail của bản ghi vừa edit. Tuy nhiên, khi user thoát ra khỏi view detail đấy và vào lại thì không tìm thấy bản ghi ấy nữa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi trường hợp này xảy ra, ngay tại thời điểm user muốn thay đổi trạng thái của toggle, phải show MSG: "Kế hoạch này đã tồn tại" và không cho phép user thay đổi trạng thái của toggle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: Xử lý tương tự đối với trường hợp edit từ tháng sang tuần</t>
+    </r>
+  </si>
+  <si>
+    <t>Hệ thống tự động thay đổi năm khu user thay đổi trạng thái toggle</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Kế hoạch" tạo mới thành công 1 bản ghi với năm là năm trong tương lai hoặc quá khứ (ex: 2013)
+2. Vào edit bản ghi vừa tạo
+3. Thay đổi trạng thái toggle (Từ tuần sang tháng hoặc từ tháng sang tuần)
+4. Click button "Save"
+5. Xem lại bản ghi vừa edit
+-&gt; Bug: Hệ thống thông tự động đổi năm mà user đã chọn sang current year</t>
+  </si>
+  <si>
+    <t>Khi user thay đổi trạng thái của toggle, không đc phép tự động thay đổi năm thành current year</t>
+  </si>
+  <si>
+    <t>Bug này nên cố gắng fix, nếu k đc thì tạm thời pending</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +378,13 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -303,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -319,6 +465,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,7 +579,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,12 +1238,192 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"Open, Fixed, Closed, Validated"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
     <sheet name="Kế hoạch" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Vay-Cho vay" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -341,12 +341,147 @@
   <si>
     <t>Bug này nên cố gắng fix, nếu k đc thì tạm thời pending</t>
   </si>
+  <si>
+    <t>Vay-Cho vay</t>
+  </si>
+  <si>
+    <t>Sau khi save, các khoản tiền vay/cho vay hiển thị không đúng khi nhập 16 số trở lên ( làm tròn 3 số cuối, hiển thị dấu ".", dấu "," không đồng nhất)</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2. Chọn "Tạo mới"
+- Trong trường khoản tiền vay/cho vay nhập 1 dãy số &gt;16 số ( ví dụ số: 1234567890123456)
+3. Input đầy đủ vào những field còn lại 
+4. Click vào button "Lưu"
+-&gt; Actualy: hiển thị khoản tiền vay/cho vay : 1,234,567,890,123.460</t>
+  </si>
+  <si>
+    <t>Phải hiển thị chính xác khoản tiền đã nhập, không được phép làm tròn, thống nhất để dấu "." hoặc dấu "," để phân chia số</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không hiển thị ngày đáo hạn gần nhất </t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2.  Chọn "Tạo mới" khoản vay 
+3. Input ngày đáo hạn là 07/03/2013 ( trong khi trước đó đã có 1 định khoản có ngày đáo hạn là 08/03/2013)
+4. Input đầy đủ vào những field còn lại 
+5. Click vào button "Lưu"
+-&gt; Actualy: vẫn hiển thị ngày đáo hạn ở màn hình vay là 08/03/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phải hiển thị ngày đáo hạn là ngày gần nhất </t>
+  </si>
+  <si>
+    <t>Không tính được lãi</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2.  Chọn "Tạo mới" khoản vay/cho vay
+3. Input đầy đủ vào những field còn lại 
+4. Click vào button "Lưu"
+-&gt; Actualy:  1 tháng sau tiền lãi vẫn = 0</t>
+  </si>
+  <si>
+    <t>Phải tính được lãi đơn và lãi kép</t>
+  </si>
+  <si>
+    <t>Trường "Kiểu" ( "Debt type" ) không hiển thị loại vay hay cho vay</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2.  Chọn 1 định khoản bất kì bên vay hoặc cho vay
+3. Quan sát màn hình view detail
+-&gt; Actual: tại trường "Kiểu" không hiển thị là vay hay cho vay</t>
+  </si>
+  <si>
+    <t>Phải hiển thị kiểu vay ( nếu định khoản là khoản vay), hoặc cho vay ( nếu định khoản là cho vay ) tại trường "Kiểu" ( "Debt type" )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày đáo hạn ở view detail luôn giống ngày bắt đầu </t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2.  Quan sát màn hình view các định khoản vay hoặc cho vay
+3. Chọn 1 định khoản vay hoặc cho vay có ngày đáo hạn là 13/12/2012
+3. Quan sát màn hình view detail
+-&gt; Actual: Ngày đáo hạn ở view detail luôn giống ngày bắt đầu ( 04/12/2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phải hiển thị đúng ngày đáo hạn trong view detail của định khoản </t>
+  </si>
+  <si>
+    <t>Tự động đổi kiểu lãi</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2.  Chọn 1 định khoản bất kì có kiểu lãi là "Lãi kép" và sửa đổi kiểu của định khoản đó từ "Vay" sang "Cho vay" ( hoặc ngược lại )
+3. Chọn "Lưu"
+-&gt; Actual: xuất hiện định khoản đã thay đổi bên "Cho vay" nhưng kiểu lãi là "Lãi kép"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phải giữ nguyên những gì không sửa đổi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không tự động ghép 2 schedule có chung người vay ( hoặc người cho vay ), chung ngày đáo hạn và ngày bắt đầu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2.  Tạo mới một định khoản vay (hoặc cho vay)
+4. Chọn "Lưu"
+5.  Tạo mới một định khoản vay với người vay và ngày đáo hạn, ngày bắt đầu giống với định khoản trên 
+6. Chọn "Lưu"
+-&gt; Actual: Xuất hiện 2 định khoản có chung người cho vay, ngày đáo hạn và ngày bắt đầu </t>
+  </si>
+  <si>
+    <t>Phải tự động ghép 2 schedule có chung người vay ( hoặc người cho vay ), chung ngày đáo hạn và ngày bắt đầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày hiển thị không đồng nhất </t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2.   Tạo mới một định khoản vay (hoặc cho vay)
+3. Quan sát ngày bắt đầu ( ví dụ là ngày 04/04/2013)
+4. Nhập ngày đáo hạn là 04/04/2014
+-&gt; Actual: Ngày bắt đầu hiển thị 4/4/2013, không có số 0 ở những số ngày tháng chỉ có hàng đơn vị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phải hiển thị số 0 ở trước những số ngày tháng chỉ có hàng đơn vị trong màn hình tạo mới định khoản vay hoặc cho vay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị số âm khi nhập 20 chữ số vào khoản tiền vay hoặc cho vay </t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2.   Tạo mới một định khoản vay (hoặc cho vay)
+3. Input vào trường total 20 chữ số : 12345678901234567890
+4. Input vào những trường còn lại 
+5. Chọn "Lưu" 
+-&gt; Actual: ở màn hình view các schedule, trường total xuất hiện dòng số như sau : "-6,101,065,172,474.980.000"</t>
+  </si>
+  <si>
+    <t>Phải hiển thị đúng thông tin đã nhập vào</t>
+  </si>
+  <si>
+    <t>Hiển thị không đúng số tiền sau khi sửa đổi số tiền vay hoặc cho vay</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2.   Sửa đổi một định khoản bất kì 
+3. Sửa đổi số tiền vay ( hoặc cho vay): từ " 23,456,789" thành " 23,456,788" 
+5. Chọn "Lưu" 
+-&gt; Actual: ở màn hình view các schedule, số tiền bị sửa đổi sẽ chỉ hiển thị những chữ số ở trước dấu phẩy đầu tiên. Trong trường hợp này số tiền hiển thị là : 23</t>
+  </si>
+  <si>
+    <t>Phải hiển thị đúng thông tin đã sửa đổi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +520,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -449,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -484,6 +626,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,6 +645,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2828925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3737229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10467975" y="403479"/>
+          <a:ext cx="2771775" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61911</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2812255</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4000500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10710861" y="4581525"/>
+          <a:ext cx="2750344" cy="3667125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1240,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1430,12 +1669,231 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="325.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
   <si>
     <t>Description</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>Phải hiển thị đúng thông tin đã sửa đổi</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -818,7 +821,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1030,7 +1033,7 @@
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1094,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1128,7 +1131,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1144,6 +1147,9 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1173,6 +1179,9 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1479,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1536,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -1541,7 +1550,7 @@
         <v>34</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,7 +1564,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1569,7 +1578,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -1583,7 +1592,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -1597,7 +1606,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -1671,7 +1680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1685,7 +1694,7 @@
     <col min="6" max="6" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
     <sheet name="Kế hoạch" sheetId="2" r:id="rId2"/>
     <sheet name="Vay-Cho vay" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>Description</t>
   </si>
@@ -477,14 +477,23 @@
     <t>Phải hiển thị đúng thông tin đã sửa đổi</t>
   </si>
   <si>
-    <t>Fixed</t>
+    <t>Phần trăm lãi nhập được đến 900%</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2.   Input giá trị phần trăm lãi: 900%
+3. Input vào các trường còn lại 
+--&gt; Actual: hiển thị phần trăm lãi là 900%</t>
+  </si>
+  <si>
+    <t>Phần trăm lại tối đa là 100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,7 +685,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -720,7 +729,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -786,7 +795,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -818,10 +827,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -853,7 +861,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1029,14 +1036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -1046,7 +1053,7 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1066,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,10 +1087,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1097,10 +1104,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1117,7 +1124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="89.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1131,10 +1138,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1147,11 +1154,8 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1173,306 +1177,303 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1"/>
+    <row r="11" spans="1:6" s="1" customFormat="1"/>
+    <row r="12" spans="1:6" s="1" customFormat="1"/>
+    <row r="13" spans="1:6" s="1" customFormat="1"/>
+    <row r="14" spans="1:6" s="1" customFormat="1"/>
+    <row r="15" spans="1:6" s="1" customFormat="1"/>
+    <row r="16" spans="1:6" s="1" customFormat="1"/>
+    <row r="17" s="1" customFormat="1"/>
+    <row r="18" s="1" customFormat="1"/>
+    <row r="19" s="1" customFormat="1"/>
+    <row r="20" s="1" customFormat="1"/>
+    <row r="21" s="1" customFormat="1"/>
+    <row r="22" s="1" customFormat="1"/>
+    <row r="23" s="1" customFormat="1"/>
+    <row r="24" s="1" customFormat="1"/>
+    <row r="25" s="1" customFormat="1"/>
+    <row r="26" s="1" customFormat="1"/>
+    <row r="27" s="1" customFormat="1"/>
+    <row r="28" s="1" customFormat="1"/>
+    <row r="29" s="1" customFormat="1"/>
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" s="1" customFormat="1"/>
+    <row r="32" s="1" customFormat="1"/>
+    <row r="33" s="1" customFormat="1"/>
+    <row r="34" s="1" customFormat="1"/>
+    <row r="35" s="1" customFormat="1"/>
+    <row r="36" s="1" customFormat="1"/>
+    <row r="37" s="1" customFormat="1"/>
+    <row r="38" s="1" customFormat="1"/>
+    <row r="39" s="1" customFormat="1"/>
+    <row r="40" s="1" customFormat="1"/>
+    <row r="41" s="1" customFormat="1"/>
+    <row r="42" s="1" customFormat="1"/>
+    <row r="43" s="1" customFormat="1"/>
+    <row r="44" s="1" customFormat="1"/>
+    <row r="45" s="1" customFormat="1"/>
+    <row r="46" s="1" customFormat="1"/>
+    <row r="47" s="1" customFormat="1"/>
+    <row r="48" s="1" customFormat="1"/>
+    <row r="49" s="1" customFormat="1"/>
+    <row r="50" s="1" customFormat="1"/>
+    <row r="51" s="1" customFormat="1"/>
+    <row r="52" s="1" customFormat="1"/>
+    <row r="53" s="1" customFormat="1"/>
+    <row r="54" s="1" customFormat="1"/>
+    <row r="55" s="1" customFormat="1"/>
+    <row r="56" s="1" customFormat="1"/>
+    <row r="57" s="1" customFormat="1"/>
+    <row r="58" s="1" customFormat="1"/>
+    <row r="59" s="1" customFormat="1"/>
+    <row r="60" s="1" customFormat="1"/>
+    <row r="61" s="1" customFormat="1"/>
+    <row r="62" s="1" customFormat="1"/>
+    <row r="63" s="1" customFormat="1"/>
+    <row r="64" s="1" customFormat="1"/>
+    <row r="65" s="1" customFormat="1"/>
+    <row r="66" s="1" customFormat="1"/>
+    <row r="67" s="1" customFormat="1"/>
+    <row r="68" s="1" customFormat="1"/>
+    <row r="69" s="1" customFormat="1"/>
+    <row r="70" s="1" customFormat="1"/>
+    <row r="71" s="1" customFormat="1"/>
+    <row r="72" s="1" customFormat="1"/>
+    <row r="73" s="1" customFormat="1"/>
+    <row r="74" s="1" customFormat="1"/>
+    <row r="75" s="1" customFormat="1"/>
+    <row r="76" s="1" customFormat="1"/>
+    <row r="77" s="1" customFormat="1"/>
+    <row r="78" s="1" customFormat="1"/>
+    <row r="79" s="1" customFormat="1"/>
+    <row r="80" s="1" customFormat="1"/>
+    <row r="81" s="1" customFormat="1"/>
+    <row r="82" s="1" customFormat="1"/>
+    <row r="83" s="1" customFormat="1"/>
+    <row r="84" s="1" customFormat="1"/>
+    <row r="85" s="1" customFormat="1"/>
+    <row r="86" s="1" customFormat="1"/>
+    <row r="87" s="1" customFormat="1"/>
+    <row r="88" s="1" customFormat="1"/>
+    <row r="89" s="1" customFormat="1"/>
+    <row r="90" s="1" customFormat="1"/>
+    <row r="91" s="1" customFormat="1"/>
+    <row r="92" s="1" customFormat="1"/>
+    <row r="93" s="1" customFormat="1"/>
+    <row r="94" s="1" customFormat="1"/>
+    <row r="95" s="1" customFormat="1"/>
+    <row r="96" s="1" customFormat="1"/>
+    <row r="97" s="1" customFormat="1"/>
+    <row r="98" s="1" customFormat="1"/>
+    <row r="99" s="1" customFormat="1"/>
+    <row r="100" s="1" customFormat="1"/>
+    <row r="101" s="1" customFormat="1"/>
+    <row r="102" s="1" customFormat="1"/>
+    <row r="103" s="1" customFormat="1"/>
+    <row r="104" s="1" customFormat="1"/>
+    <row r="105" s="1" customFormat="1"/>
+    <row r="106" s="1" customFormat="1"/>
+    <row r="107" s="1" customFormat="1"/>
+    <row r="108" s="1" customFormat="1"/>
+    <row r="109" s="1" customFormat="1"/>
+    <row r="110" s="1" customFormat="1"/>
+    <row r="111" s="1" customFormat="1"/>
+    <row r="112" s="1" customFormat="1"/>
+    <row r="113" s="1" customFormat="1"/>
+    <row r="114" s="1" customFormat="1"/>
+    <row r="115" s="1" customFormat="1"/>
+    <row r="116" s="1" customFormat="1"/>
+    <row r="117" s="1" customFormat="1"/>
+    <row r="118" s="1" customFormat="1"/>
+    <row r="119" s="1" customFormat="1"/>
+    <row r="120" s="1" customFormat="1"/>
+    <row r="121" s="2" customFormat="1"/>
+    <row r="122" s="2" customFormat="1"/>
+    <row r="123" s="2" customFormat="1"/>
+    <row r="124" s="2" customFormat="1"/>
+    <row r="125" s="2" customFormat="1"/>
+    <row r="126" s="2" customFormat="1"/>
+    <row r="127" s="2" customFormat="1"/>
+    <row r="128" s="2" customFormat="1"/>
+    <row r="129" s="2" customFormat="1"/>
+    <row r="130" s="2" customFormat="1"/>
+    <row r="131" s="2" customFormat="1"/>
+    <row r="132" s="2" customFormat="1"/>
+    <row r="133" s="2" customFormat="1"/>
+    <row r="134" s="2" customFormat="1"/>
+    <row r="135" s="2" customFormat="1"/>
+    <row r="136" s="2" customFormat="1"/>
+    <row r="137" s="2" customFormat="1"/>
+    <row r="138" s="2" customFormat="1"/>
+    <row r="139" s="2" customFormat="1"/>
+    <row r="140" s="2" customFormat="1"/>
+    <row r="141" s="2" customFormat="1"/>
+    <row r="142" s="2" customFormat="1"/>
+    <row r="143" s="2" customFormat="1"/>
+    <row r="144" s="2" customFormat="1"/>
+    <row r="145" s="2" customFormat="1"/>
+    <row r="146" s="2" customFormat="1"/>
+    <row r="147" s="2" customFormat="1"/>
+    <row r="148" s="2" customFormat="1"/>
+    <row r="149" s="2" customFormat="1"/>
+    <row r="150" s="2" customFormat="1"/>
+    <row r="151" s="2" customFormat="1"/>
+    <row r="152" s="2" customFormat="1"/>
+    <row r="153" s="2" customFormat="1"/>
+    <row r="154" s="2" customFormat="1"/>
+    <row r="155" s="2" customFormat="1"/>
+    <row r="156" s="2" customFormat="1"/>
+    <row r="157" s="2" customFormat="1"/>
+    <row r="158" s="2" customFormat="1"/>
+    <row r="159" s="2" customFormat="1"/>
+    <row r="160" s="2" customFormat="1"/>
+    <row r="161" s="2" customFormat="1"/>
+    <row r="162" s="2" customFormat="1"/>
+    <row r="163" s="2" customFormat="1"/>
+    <row r="164" s="2" customFormat="1"/>
+    <row r="165" s="2" customFormat="1"/>
+    <row r="166" s="2" customFormat="1"/>
+    <row r="167" s="2" customFormat="1"/>
+    <row r="168" s="2" customFormat="1"/>
+    <row r="169" s="2" customFormat="1"/>
+    <row r="170" s="2" customFormat="1"/>
+    <row r="171" s="2" customFormat="1"/>
+    <row r="172" s="2" customFormat="1"/>
+    <row r="173" s="2" customFormat="1"/>
+    <row r="174" s="2" customFormat="1"/>
+    <row r="175" s="2" customFormat="1"/>
+    <row r="176" s="2" customFormat="1"/>
+    <row r="177" s="2" customFormat="1"/>
+    <row r="178" s="2" customFormat="1"/>
+    <row r="179" s="2" customFormat="1"/>
+    <row r="180" s="3" customFormat="1"/>
+    <row r="181" s="3" customFormat="1"/>
+    <row r="182" s="3" customFormat="1"/>
+    <row r="183" s="3" customFormat="1"/>
+    <row r="184" s="3" customFormat="1"/>
+    <row r="185" s="3" customFormat="1"/>
+    <row r="186" s="3" customFormat="1"/>
+    <row r="187" s="3" customFormat="1"/>
+    <row r="188" s="3" customFormat="1"/>
+    <row r="189" s="3" customFormat="1"/>
+    <row r="190" s="3" customFormat="1"/>
+    <row r="191" s="3" customFormat="1"/>
+    <row r="192" s="3" customFormat="1"/>
+    <row r="193" s="3" customFormat="1"/>
+    <row r="194" s="3" customFormat="1"/>
+    <row r="195" s="3" customFormat="1"/>
+    <row r="196" s="3" customFormat="1"/>
+    <row r="197" s="3" customFormat="1"/>
+    <row r="198" s="3" customFormat="1"/>
+    <row r="199" s="3" customFormat="1"/>
+    <row r="200" s="3" customFormat="1"/>
+    <row r="201" s="3" customFormat="1"/>
+    <row r="202" s="3" customFormat="1"/>
+    <row r="203" s="3" customFormat="1"/>
+    <row r="204" s="3" customFormat="1"/>
+    <row r="205" s="3" customFormat="1"/>
+    <row r="206" s="3" customFormat="1"/>
+    <row r="207" s="3" customFormat="1"/>
+    <row r="208" s="3" customFormat="1"/>
+    <row r="209" s="3" customFormat="1"/>
+    <row r="210" s="3" customFormat="1"/>
+    <row r="211" s="3" customFormat="1"/>
+    <row r="212" s="3" customFormat="1"/>
+    <row r="213" s="3" customFormat="1"/>
+    <row r="214" s="3" customFormat="1"/>
+    <row r="215" s="3" customFormat="1"/>
+    <row r="216" s="3" customFormat="1"/>
+    <row r="217" s="3" customFormat="1"/>
+    <row r="218" s="3" customFormat="1"/>
+    <row r="219" s="3" customFormat="1"/>
+    <row r="220" s="3" customFormat="1"/>
+    <row r="221" s="3" customFormat="1"/>
+    <row r="222" s="3" customFormat="1"/>
+    <row r="223" s="3" customFormat="1"/>
+    <row r="224" s="3" customFormat="1"/>
+    <row r="225" s="3" customFormat="1"/>
+    <row r="226" s="3" customFormat="1"/>
+    <row r="227" s="3" customFormat="1"/>
+    <row r="228" s="3" customFormat="1"/>
+    <row r="229" s="3" customFormat="1"/>
+    <row r="230" s="3" customFormat="1"/>
+    <row r="231" s="3" customFormat="1"/>
+    <row r="232" s="3" customFormat="1"/>
+    <row r="233" s="3" customFormat="1"/>
+    <row r="234" s="3" customFormat="1"/>
+    <row r="235" s="3" customFormat="1"/>
+    <row r="236" s="3" customFormat="1"/>
+    <row r="237" s="3" customFormat="1"/>
+    <row r="238" s="3" customFormat="1"/>
+    <row r="239" s="3" customFormat="1"/>
+    <row r="240" s="3" customFormat="1"/>
+    <row r="241" s="3" customFormat="1"/>
+    <row r="242" s="3" customFormat="1"/>
+    <row r="243" s="3" customFormat="1"/>
+    <row r="244" s="3" customFormat="1"/>
+    <row r="245" s="3" customFormat="1"/>
+    <row r="246" s="3" customFormat="1"/>
+    <row r="247" s="3" customFormat="1"/>
+    <row r="248" s="3" customFormat="1"/>
+    <row r="249" s="3" customFormat="1"/>
+    <row r="250" s="3" customFormat="1"/>
+    <row r="251" s="3" customFormat="1"/>
+    <row r="252" s="3" customFormat="1"/>
+    <row r="253" s="3" customFormat="1"/>
+    <row r="254" s="3" customFormat="1"/>
+    <row r="255" s="3" customFormat="1"/>
+    <row r="256" s="3" customFormat="1"/>
+    <row r="257" s="3" customFormat="1"/>
+    <row r="258" s="3" customFormat="1"/>
+    <row r="259" s="3" customFormat="1"/>
+    <row r="260" s="3" customFormat="1"/>
+    <row r="261" s="3" customFormat="1"/>
+    <row r="262" s="3" customFormat="1"/>
+    <row r="263" s="3" customFormat="1"/>
+    <row r="264" s="3" customFormat="1"/>
+    <row r="265" s="3" customFormat="1"/>
+    <row r="266" s="3" customFormat="1"/>
+    <row r="267" s="3" customFormat="1"/>
+    <row r="268" s="3" customFormat="1"/>
+    <row r="269" s="3" customFormat="1"/>
+    <row r="270" s="3" customFormat="1"/>
+    <row r="271" s="3" customFormat="1"/>
+    <row r="272" s="3" customFormat="1"/>
+    <row r="273" s="3" customFormat="1"/>
+    <row r="274" s="3" customFormat="1"/>
+    <row r="275" s="3" customFormat="1"/>
+    <row r="276" s="3" customFormat="1"/>
+    <row r="277" s="3" customFormat="1"/>
+    <row r="278" s="3" customFormat="1"/>
+    <row r="279" s="3" customFormat="1"/>
+    <row r="280" s="3" customFormat="1"/>
+    <row r="281" s="3" customFormat="1"/>
+    <row r="282" s="3" customFormat="1"/>
+    <row r="283" s="3" customFormat="1"/>
+    <row r="284" s="3" customFormat="1"/>
+    <row r="285" s="3" customFormat="1"/>
+    <row r="286" s="3" customFormat="1"/>
+    <row r="287" s="3" customFormat="1"/>
+    <row r="288" s="3" customFormat="1"/>
+    <row r="289" s="3" customFormat="1"/>
+    <row r="290" s="3" customFormat="1"/>
+    <row r="291" s="3" customFormat="1"/>
+    <row r="292" s="3" customFormat="1"/>
+    <row r="293" s="3" customFormat="1"/>
+    <row r="294" s="3" customFormat="1"/>
+    <row r="295" s="3" customFormat="1"/>
+    <row r="296" s="3" customFormat="1"/>
+    <row r="297" s="3" customFormat="1"/>
+    <row r="298" s="3" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1485,14 +1486,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
@@ -1502,7 +1503,7 @@
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="88.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
@@ -1536,10 +1537,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="135">
       <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1550,10 +1551,10 @@
         <v>34</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
@@ -1564,10 +1565,10 @@
         <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="90">
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
@@ -1578,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="105">
       <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1592,10 +1593,10 @@
         <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="150">
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
@@ -1606,10 +1607,10 @@
         <v>46</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="165">
       <c r="B8" s="7" t="s">
         <v>47</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="150">
       <c r="B9" s="10" t="s">
         <v>50</v>
       </c>
@@ -1640,32 +1641,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" s="9" customFormat="1"/>
+    <row r="11" spans="1:6" s="9" customFormat="1"/>
+    <row r="12" spans="1:6" s="9" customFormat="1"/>
+    <row r="13" spans="1:6" s="9" customFormat="1"/>
+    <row r="14" spans="1:6" s="9" customFormat="1"/>
+    <row r="15" spans="1:6" s="9" customFormat="1"/>
+    <row r="16" spans="1:6" s="9" customFormat="1"/>
+    <row r="17" s="9" customFormat="1"/>
+    <row r="18" s="9" customFormat="1"/>
+    <row r="19" s="9" customFormat="1"/>
+    <row r="20" s="9" customFormat="1"/>
+    <row r="21" s="9" customFormat="1"/>
+    <row r="22" s="9" customFormat="1"/>
+    <row r="23" s="9" customFormat="1"/>
+    <row r="24" s="9" customFormat="1"/>
+    <row r="25" s="9" customFormat="1"/>
+    <row r="26" s="9" customFormat="1"/>
+    <row r="27" s="9" customFormat="1"/>
+    <row r="28" s="9" customFormat="1"/>
+    <row r="29" s="9" customFormat="1"/>
+    <row r="30" s="9" customFormat="1"/>
+    <row r="31" s="9" customFormat="1"/>
+    <row r="32" s="9" customFormat="1"/>
+    <row r="33" s="9" customFormat="1"/>
+    <row r="34" s="9" customFormat="1"/>
+    <row r="35" s="9" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1677,14 +1678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
@@ -1694,7 +1695,7 @@
     <col min="6" max="6" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="306" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1732,7 +1733,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="325.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="325.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -1748,7 +1749,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>61</v>
@@ -1764,7 +1765,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -1780,7 +1781,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -1796,7 +1797,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="105">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>70</v>
@@ -1812,7 +1813,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="120">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>73</v>
@@ -1828,7 +1829,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="90">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>76</v>
@@ -1844,7 +1845,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="105">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>79</v>
@@ -1860,7 +1861,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="120">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>82</v>
@@ -1876,15 +1877,23 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="60">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1892,7 +1901,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
     <sheet name="Kế hoạch" sheetId="2" r:id="rId2"/>
     <sheet name="Vay-Cho vay" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
   <si>
     <t>Description</t>
   </si>
@@ -477,23 +477,17 @@
     <t>Phải hiển thị đúng thông tin đã sửa đổi</t>
   </si>
   <si>
-    <t>Phần trăm lãi nhập được đến 900%</t>
-  </si>
-  <si>
-    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
-2.   Input giá trị phần trăm lãi: 900%
-3. Input vào các trường còn lại 
---&gt; Actual: hiển thị phần trăm lãi là 900%</t>
-  </si>
-  <si>
-    <t>Phần trăm lại tối đa là 100%</t>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,7 +679,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -729,7 +723,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -827,6 +821,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -861,6 +856,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1036,14 +1032,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -1053,7 +1049,7 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,10 +1083,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1104,10 +1100,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1124,7 +1120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="89.25" customHeight="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1138,10 +1134,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1154,8 +1150,11 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1">
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1177,303 +1176,306 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1"/>
-    <row r="11" spans="1:6" s="1" customFormat="1"/>
-    <row r="12" spans="1:6" s="1" customFormat="1"/>
-    <row r="13" spans="1:6" s="1" customFormat="1"/>
-    <row r="14" spans="1:6" s="1" customFormat="1"/>
-    <row r="15" spans="1:6" s="1" customFormat="1"/>
-    <row r="16" spans="1:6" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="1" customFormat="1"/>
-    <row r="28" s="1" customFormat="1"/>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" s="1" customFormat="1"/>
-    <row r="32" s="1" customFormat="1"/>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" s="1" customFormat="1"/>
-    <row r="50" s="1" customFormat="1"/>
-    <row r="51" s="1" customFormat="1"/>
-    <row r="52" s="1" customFormat="1"/>
-    <row r="53" s="1" customFormat="1"/>
-    <row r="54" s="1" customFormat="1"/>
-    <row r="55" s="1" customFormat="1"/>
-    <row r="56" s="1" customFormat="1"/>
-    <row r="57" s="1" customFormat="1"/>
-    <row r="58" s="1" customFormat="1"/>
-    <row r="59" s="1" customFormat="1"/>
-    <row r="60" s="1" customFormat="1"/>
-    <row r="61" s="1" customFormat="1"/>
-    <row r="62" s="1" customFormat="1"/>
-    <row r="63" s="1" customFormat="1"/>
-    <row r="64" s="1" customFormat="1"/>
-    <row r="65" s="1" customFormat="1"/>
-    <row r="66" s="1" customFormat="1"/>
-    <row r="67" s="1" customFormat="1"/>
-    <row r="68" s="1" customFormat="1"/>
-    <row r="69" s="1" customFormat="1"/>
-    <row r="70" s="1" customFormat="1"/>
-    <row r="71" s="1" customFormat="1"/>
-    <row r="72" s="1" customFormat="1"/>
-    <row r="73" s="1" customFormat="1"/>
-    <row r="74" s="1" customFormat="1"/>
-    <row r="75" s="1" customFormat="1"/>
-    <row r="76" s="1" customFormat="1"/>
-    <row r="77" s="1" customFormat="1"/>
-    <row r="78" s="1" customFormat="1"/>
-    <row r="79" s="1" customFormat="1"/>
-    <row r="80" s="1" customFormat="1"/>
-    <row r="81" s="1" customFormat="1"/>
-    <row r="82" s="1" customFormat="1"/>
-    <row r="83" s="1" customFormat="1"/>
-    <row r="84" s="1" customFormat="1"/>
-    <row r="85" s="1" customFormat="1"/>
-    <row r="86" s="1" customFormat="1"/>
-    <row r="87" s="1" customFormat="1"/>
-    <row r="88" s="1" customFormat="1"/>
-    <row r="89" s="1" customFormat="1"/>
-    <row r="90" s="1" customFormat="1"/>
-    <row r="91" s="1" customFormat="1"/>
-    <row r="92" s="1" customFormat="1"/>
-    <row r="93" s="1" customFormat="1"/>
-    <row r="94" s="1" customFormat="1"/>
-    <row r="95" s="1" customFormat="1"/>
-    <row r="96" s="1" customFormat="1"/>
-    <row r="97" s="1" customFormat="1"/>
-    <row r="98" s="1" customFormat="1"/>
-    <row r="99" s="1" customFormat="1"/>
-    <row r="100" s="1" customFormat="1"/>
-    <row r="101" s="1" customFormat="1"/>
-    <row r="102" s="1" customFormat="1"/>
-    <row r="103" s="1" customFormat="1"/>
-    <row r="104" s="1" customFormat="1"/>
-    <row r="105" s="1" customFormat="1"/>
-    <row r="106" s="1" customFormat="1"/>
-    <row r="107" s="1" customFormat="1"/>
-    <row r="108" s="1" customFormat="1"/>
-    <row r="109" s="1" customFormat="1"/>
-    <row r="110" s="1" customFormat="1"/>
-    <row r="111" s="1" customFormat="1"/>
-    <row r="112" s="1" customFormat="1"/>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="114" s="1" customFormat="1"/>
-    <row r="115" s="1" customFormat="1"/>
-    <row r="116" s="1" customFormat="1"/>
-    <row r="117" s="1" customFormat="1"/>
-    <row r="118" s="1" customFormat="1"/>
-    <row r="119" s="1" customFormat="1"/>
-    <row r="120" s="1" customFormat="1"/>
-    <row r="121" s="2" customFormat="1"/>
-    <row r="122" s="2" customFormat="1"/>
-    <row r="123" s="2" customFormat="1"/>
-    <row r="124" s="2" customFormat="1"/>
-    <row r="125" s="2" customFormat="1"/>
-    <row r="126" s="2" customFormat="1"/>
-    <row r="127" s="2" customFormat="1"/>
-    <row r="128" s="2" customFormat="1"/>
-    <row r="129" s="2" customFormat="1"/>
-    <row r="130" s="2" customFormat="1"/>
-    <row r="131" s="2" customFormat="1"/>
-    <row r="132" s="2" customFormat="1"/>
-    <row r="133" s="2" customFormat="1"/>
-    <row r="134" s="2" customFormat="1"/>
-    <row r="135" s="2" customFormat="1"/>
-    <row r="136" s="2" customFormat="1"/>
-    <row r="137" s="2" customFormat="1"/>
-    <row r="138" s="2" customFormat="1"/>
-    <row r="139" s="2" customFormat="1"/>
-    <row r="140" s="2" customFormat="1"/>
-    <row r="141" s="2" customFormat="1"/>
-    <row r="142" s="2" customFormat="1"/>
-    <row r="143" s="2" customFormat="1"/>
-    <row r="144" s="2" customFormat="1"/>
-    <row r="145" s="2" customFormat="1"/>
-    <row r="146" s="2" customFormat="1"/>
-    <row r="147" s="2" customFormat="1"/>
-    <row r="148" s="2" customFormat="1"/>
-    <row r="149" s="2" customFormat="1"/>
-    <row r="150" s="2" customFormat="1"/>
-    <row r="151" s="2" customFormat="1"/>
-    <row r="152" s="2" customFormat="1"/>
-    <row r="153" s="2" customFormat="1"/>
-    <row r="154" s="2" customFormat="1"/>
-    <row r="155" s="2" customFormat="1"/>
-    <row r="156" s="2" customFormat="1"/>
-    <row r="157" s="2" customFormat="1"/>
-    <row r="158" s="2" customFormat="1"/>
-    <row r="159" s="2" customFormat="1"/>
-    <row r="160" s="2" customFormat="1"/>
-    <row r="161" s="2" customFormat="1"/>
-    <row r="162" s="2" customFormat="1"/>
-    <row r="163" s="2" customFormat="1"/>
-    <row r="164" s="2" customFormat="1"/>
-    <row r="165" s="2" customFormat="1"/>
-    <row r="166" s="2" customFormat="1"/>
-    <row r="167" s="2" customFormat="1"/>
-    <row r="168" s="2" customFormat="1"/>
-    <row r="169" s="2" customFormat="1"/>
-    <row r="170" s="2" customFormat="1"/>
-    <row r="171" s="2" customFormat="1"/>
-    <row r="172" s="2" customFormat="1"/>
-    <row r="173" s="2" customFormat="1"/>
-    <row r="174" s="2" customFormat="1"/>
-    <row r="175" s="2" customFormat="1"/>
-    <row r="176" s="2" customFormat="1"/>
-    <row r="177" s="2" customFormat="1"/>
-    <row r="178" s="2" customFormat="1"/>
-    <row r="179" s="2" customFormat="1"/>
-    <row r="180" s="3" customFormat="1"/>
-    <row r="181" s="3" customFormat="1"/>
-    <row r="182" s="3" customFormat="1"/>
-    <row r="183" s="3" customFormat="1"/>
-    <row r="184" s="3" customFormat="1"/>
-    <row r="185" s="3" customFormat="1"/>
-    <row r="186" s="3" customFormat="1"/>
-    <row r="187" s="3" customFormat="1"/>
-    <row r="188" s="3" customFormat="1"/>
-    <row r="189" s="3" customFormat="1"/>
-    <row r="190" s="3" customFormat="1"/>
-    <row r="191" s="3" customFormat="1"/>
-    <row r="192" s="3" customFormat="1"/>
-    <row r="193" s="3" customFormat="1"/>
-    <row r="194" s="3" customFormat="1"/>
-    <row r="195" s="3" customFormat="1"/>
-    <row r="196" s="3" customFormat="1"/>
-    <row r="197" s="3" customFormat="1"/>
-    <row r="198" s="3" customFormat="1"/>
-    <row r="199" s="3" customFormat="1"/>
-    <row r="200" s="3" customFormat="1"/>
-    <row r="201" s="3" customFormat="1"/>
-    <row r="202" s="3" customFormat="1"/>
-    <row r="203" s="3" customFormat="1"/>
-    <row r="204" s="3" customFormat="1"/>
-    <row r="205" s="3" customFormat="1"/>
-    <row r="206" s="3" customFormat="1"/>
-    <row r="207" s="3" customFormat="1"/>
-    <row r="208" s="3" customFormat="1"/>
-    <row r="209" s="3" customFormat="1"/>
-    <row r="210" s="3" customFormat="1"/>
-    <row r="211" s="3" customFormat="1"/>
-    <row r="212" s="3" customFormat="1"/>
-    <row r="213" s="3" customFormat="1"/>
-    <row r="214" s="3" customFormat="1"/>
-    <row r="215" s="3" customFormat="1"/>
-    <row r="216" s="3" customFormat="1"/>
-    <row r="217" s="3" customFormat="1"/>
-    <row r="218" s="3" customFormat="1"/>
-    <row r="219" s="3" customFormat="1"/>
-    <row r="220" s="3" customFormat="1"/>
-    <row r="221" s="3" customFormat="1"/>
-    <row r="222" s="3" customFormat="1"/>
-    <row r="223" s="3" customFormat="1"/>
-    <row r="224" s="3" customFormat="1"/>
-    <row r="225" s="3" customFormat="1"/>
-    <row r="226" s="3" customFormat="1"/>
-    <row r="227" s="3" customFormat="1"/>
-    <row r="228" s="3" customFormat="1"/>
-    <row r="229" s="3" customFormat="1"/>
-    <row r="230" s="3" customFormat="1"/>
-    <row r="231" s="3" customFormat="1"/>
-    <row r="232" s="3" customFormat="1"/>
-    <row r="233" s="3" customFormat="1"/>
-    <row r="234" s="3" customFormat="1"/>
-    <row r="235" s="3" customFormat="1"/>
-    <row r="236" s="3" customFormat="1"/>
-    <row r="237" s="3" customFormat="1"/>
-    <row r="238" s="3" customFormat="1"/>
-    <row r="239" s="3" customFormat="1"/>
-    <row r="240" s="3" customFormat="1"/>
-    <row r="241" s="3" customFormat="1"/>
-    <row r="242" s="3" customFormat="1"/>
-    <row r="243" s="3" customFormat="1"/>
-    <row r="244" s="3" customFormat="1"/>
-    <row r="245" s="3" customFormat="1"/>
-    <row r="246" s="3" customFormat="1"/>
-    <row r="247" s="3" customFormat="1"/>
-    <row r="248" s="3" customFormat="1"/>
-    <row r="249" s="3" customFormat="1"/>
-    <row r="250" s="3" customFormat="1"/>
-    <row r="251" s="3" customFormat="1"/>
-    <row r="252" s="3" customFormat="1"/>
-    <row r="253" s="3" customFormat="1"/>
-    <row r="254" s="3" customFormat="1"/>
-    <row r="255" s="3" customFormat="1"/>
-    <row r="256" s="3" customFormat="1"/>
-    <row r="257" s="3" customFormat="1"/>
-    <row r="258" s="3" customFormat="1"/>
-    <row r="259" s="3" customFormat="1"/>
-    <row r="260" s="3" customFormat="1"/>
-    <row r="261" s="3" customFormat="1"/>
-    <row r="262" s="3" customFormat="1"/>
-    <row r="263" s="3" customFormat="1"/>
-    <row r="264" s="3" customFormat="1"/>
-    <row r="265" s="3" customFormat="1"/>
-    <row r="266" s="3" customFormat="1"/>
-    <row r="267" s="3" customFormat="1"/>
-    <row r="268" s="3" customFormat="1"/>
-    <row r="269" s="3" customFormat="1"/>
-    <row r="270" s="3" customFormat="1"/>
-    <row r="271" s="3" customFormat="1"/>
-    <row r="272" s="3" customFormat="1"/>
-    <row r="273" s="3" customFormat="1"/>
-    <row r="274" s="3" customFormat="1"/>
-    <row r="275" s="3" customFormat="1"/>
-    <row r="276" s="3" customFormat="1"/>
-    <row r="277" s="3" customFormat="1"/>
-    <row r="278" s="3" customFormat="1"/>
-    <row r="279" s="3" customFormat="1"/>
-    <row r="280" s="3" customFormat="1"/>
-    <row r="281" s="3" customFormat="1"/>
-    <row r="282" s="3" customFormat="1"/>
-    <row r="283" s="3" customFormat="1"/>
-    <row r="284" s="3" customFormat="1"/>
-    <row r="285" s="3" customFormat="1"/>
-    <row r="286" s="3" customFormat="1"/>
-    <row r="287" s="3" customFormat="1"/>
-    <row r="288" s="3" customFormat="1"/>
-    <row r="289" s="3" customFormat="1"/>
-    <row r="290" s="3" customFormat="1"/>
-    <row r="291" s="3" customFormat="1"/>
-    <row r="292" s="3" customFormat="1"/>
-    <row r="293" s="3" customFormat="1"/>
-    <row r="294" s="3" customFormat="1"/>
-    <row r="295" s="3" customFormat="1"/>
-    <row r="296" s="3" customFormat="1"/>
-    <row r="297" s="3" customFormat="1"/>
-    <row r="298" s="3" customFormat="1"/>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1486,14 +1488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
@@ -1503,7 +1505,7 @@
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="88.5" customHeight="1">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
@@ -1537,10 +1539,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="135">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1551,10 +1553,10 @@
         <v>34</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
@@ -1565,10 +1567,10 @@
         <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="90">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
@@ -1579,10 +1581,10 @@
         <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="105">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1596,7 +1598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="150">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
@@ -1607,10 +1609,10 @@
         <v>46</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="165">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>47</v>
       </c>
@@ -1621,10 +1623,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="150">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>50</v>
       </c>
@@ -1641,32 +1643,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1"/>
-    <row r="11" spans="1:6" s="9" customFormat="1"/>
-    <row r="12" spans="1:6" s="9" customFormat="1"/>
-    <row r="13" spans="1:6" s="9" customFormat="1"/>
-    <row r="14" spans="1:6" s="9" customFormat="1"/>
-    <row r="15" spans="1:6" s="9" customFormat="1"/>
-    <row r="16" spans="1:6" s="9" customFormat="1"/>
-    <row r="17" s="9" customFormat="1"/>
-    <row r="18" s="9" customFormat="1"/>
-    <row r="19" s="9" customFormat="1"/>
-    <row r="20" s="9" customFormat="1"/>
-    <row r="21" s="9" customFormat="1"/>
-    <row r="22" s="9" customFormat="1"/>
-    <row r="23" s="9" customFormat="1"/>
-    <row r="24" s="9" customFormat="1"/>
-    <row r="25" s="9" customFormat="1"/>
-    <row r="26" s="9" customFormat="1"/>
-    <row r="27" s="9" customFormat="1"/>
-    <row r="28" s="9" customFormat="1"/>
-    <row r="29" s="9" customFormat="1"/>
-    <row r="30" s="9" customFormat="1"/>
-    <row r="31" s="9" customFormat="1"/>
-    <row r="32" s="9" customFormat="1"/>
-    <row r="33" s="9" customFormat="1"/>
-    <row r="34" s="9" customFormat="1"/>
-    <row r="35" s="9" customFormat="1"/>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1678,14 +1680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
@@ -1695,7 +1697,7 @@
     <col min="6" max="6" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -1715,7 +1717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="306" customHeight="1">
+    <row r="2" spans="1:6" ht="306" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1733,7 +1735,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="325.5" customHeight="1">
+    <row r="3" spans="1:6" ht="325.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -1749,7 +1751,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>61</v>
@@ -1765,7 +1767,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="60">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -1781,7 +1783,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -1797,7 +1799,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="105">
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>70</v>
@@ -1813,7 +1815,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="120">
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>73</v>
@@ -1829,7 +1831,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="90">
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>76</v>
@@ -1845,7 +1847,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="105">
+    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>79</v>
@@ -1861,7 +1863,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="120">
+    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>82</v>
@@ -1877,23 +1879,15 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1901,7 +1895,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
     <sheet name="Kế hoạch" sheetId="2" r:id="rId2"/>
     <sheet name="Vay-Cho vay" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
   <si>
     <t>Description</t>
   </si>
@@ -482,12 +482,25 @@
   <si>
     <t>Closed</t>
   </si>
+  <si>
+    <t>Giá trị phần trăm lãi nhập được 900%</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2. Input giá trị phần trăm lãi 900%
+3. Input vào các trường còn lại 
+4. Chọn "Lưu"
+-&gt; Actual: hiển thị giá trị phần trăm lãi là 900%</t>
+  </si>
+  <si>
+    <t>Giá trị tối đa của phần trăm lãi là 100%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,7 +692,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -723,7 +736,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -821,7 +834,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -856,7 +868,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1032,14 +1043,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -1049,7 +1060,7 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1086,7 +1097,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1114,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="89.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1137,7 +1148,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1165,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1176,7 +1187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1187,295 +1198,295 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" s="1" customFormat="1"/>
+    <row r="11" spans="1:6" s="1" customFormat="1"/>
+    <row r="12" spans="1:6" s="1" customFormat="1"/>
+    <row r="13" spans="1:6" s="1" customFormat="1"/>
+    <row r="14" spans="1:6" s="1" customFormat="1"/>
+    <row r="15" spans="1:6" s="1" customFormat="1"/>
+    <row r="16" spans="1:6" s="1" customFormat="1"/>
+    <row r="17" s="1" customFormat="1"/>
+    <row r="18" s="1" customFormat="1"/>
+    <row r="19" s="1" customFormat="1"/>
+    <row r="20" s="1" customFormat="1"/>
+    <row r="21" s="1" customFormat="1"/>
+    <row r="22" s="1" customFormat="1"/>
+    <row r="23" s="1" customFormat="1"/>
+    <row r="24" s="1" customFormat="1"/>
+    <row r="25" s="1" customFormat="1"/>
+    <row r="26" s="1" customFormat="1"/>
+    <row r="27" s="1" customFormat="1"/>
+    <row r="28" s="1" customFormat="1"/>
+    <row r="29" s="1" customFormat="1"/>
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" s="1" customFormat="1"/>
+    <row r="32" s="1" customFormat="1"/>
+    <row r="33" s="1" customFormat="1"/>
+    <row r="34" s="1" customFormat="1"/>
+    <row r="35" s="1" customFormat="1"/>
+    <row r="36" s="1" customFormat="1"/>
+    <row r="37" s="1" customFormat="1"/>
+    <row r="38" s="1" customFormat="1"/>
+    <row r="39" s="1" customFormat="1"/>
+    <row r="40" s="1" customFormat="1"/>
+    <row r="41" s="1" customFormat="1"/>
+    <row r="42" s="1" customFormat="1"/>
+    <row r="43" s="1" customFormat="1"/>
+    <row r="44" s="1" customFormat="1"/>
+    <row r="45" s="1" customFormat="1"/>
+    <row r="46" s="1" customFormat="1"/>
+    <row r="47" s="1" customFormat="1"/>
+    <row r="48" s="1" customFormat="1"/>
+    <row r="49" s="1" customFormat="1"/>
+    <row r="50" s="1" customFormat="1"/>
+    <row r="51" s="1" customFormat="1"/>
+    <row r="52" s="1" customFormat="1"/>
+    <row r="53" s="1" customFormat="1"/>
+    <row r="54" s="1" customFormat="1"/>
+    <row r="55" s="1" customFormat="1"/>
+    <row r="56" s="1" customFormat="1"/>
+    <row r="57" s="1" customFormat="1"/>
+    <row r="58" s="1" customFormat="1"/>
+    <row r="59" s="1" customFormat="1"/>
+    <row r="60" s="1" customFormat="1"/>
+    <row r="61" s="1" customFormat="1"/>
+    <row r="62" s="1" customFormat="1"/>
+    <row r="63" s="1" customFormat="1"/>
+    <row r="64" s="1" customFormat="1"/>
+    <row r="65" s="1" customFormat="1"/>
+    <row r="66" s="1" customFormat="1"/>
+    <row r="67" s="1" customFormat="1"/>
+    <row r="68" s="1" customFormat="1"/>
+    <row r="69" s="1" customFormat="1"/>
+    <row r="70" s="1" customFormat="1"/>
+    <row r="71" s="1" customFormat="1"/>
+    <row r="72" s="1" customFormat="1"/>
+    <row r="73" s="1" customFormat="1"/>
+    <row r="74" s="1" customFormat="1"/>
+    <row r="75" s="1" customFormat="1"/>
+    <row r="76" s="1" customFormat="1"/>
+    <row r="77" s="1" customFormat="1"/>
+    <row r="78" s="1" customFormat="1"/>
+    <row r="79" s="1" customFormat="1"/>
+    <row r="80" s="1" customFormat="1"/>
+    <row r="81" s="1" customFormat="1"/>
+    <row r="82" s="1" customFormat="1"/>
+    <row r="83" s="1" customFormat="1"/>
+    <row r="84" s="1" customFormat="1"/>
+    <row r="85" s="1" customFormat="1"/>
+    <row r="86" s="1" customFormat="1"/>
+    <row r="87" s="1" customFormat="1"/>
+    <row r="88" s="1" customFormat="1"/>
+    <row r="89" s="1" customFormat="1"/>
+    <row r="90" s="1" customFormat="1"/>
+    <row r="91" s="1" customFormat="1"/>
+    <row r="92" s="1" customFormat="1"/>
+    <row r="93" s="1" customFormat="1"/>
+    <row r="94" s="1" customFormat="1"/>
+    <row r="95" s="1" customFormat="1"/>
+    <row r="96" s="1" customFormat="1"/>
+    <row r="97" s="1" customFormat="1"/>
+    <row r="98" s="1" customFormat="1"/>
+    <row r="99" s="1" customFormat="1"/>
+    <row r="100" s="1" customFormat="1"/>
+    <row r="101" s="1" customFormat="1"/>
+    <row r="102" s="1" customFormat="1"/>
+    <row r="103" s="1" customFormat="1"/>
+    <row r="104" s="1" customFormat="1"/>
+    <row r="105" s="1" customFormat="1"/>
+    <row r="106" s="1" customFormat="1"/>
+    <row r="107" s="1" customFormat="1"/>
+    <row r="108" s="1" customFormat="1"/>
+    <row r="109" s="1" customFormat="1"/>
+    <row r="110" s="1" customFormat="1"/>
+    <row r="111" s="1" customFormat="1"/>
+    <row r="112" s="1" customFormat="1"/>
+    <row r="113" s="1" customFormat="1"/>
+    <row r="114" s="1" customFormat="1"/>
+    <row r="115" s="1" customFormat="1"/>
+    <row r="116" s="1" customFormat="1"/>
+    <row r="117" s="1" customFormat="1"/>
+    <row r="118" s="1" customFormat="1"/>
+    <row r="119" s="1" customFormat="1"/>
+    <row r="120" s="1" customFormat="1"/>
+    <row r="121" s="2" customFormat="1"/>
+    <row r="122" s="2" customFormat="1"/>
+    <row r="123" s="2" customFormat="1"/>
+    <row r="124" s="2" customFormat="1"/>
+    <row r="125" s="2" customFormat="1"/>
+    <row r="126" s="2" customFormat="1"/>
+    <row r="127" s="2" customFormat="1"/>
+    <row r="128" s="2" customFormat="1"/>
+    <row r="129" s="2" customFormat="1"/>
+    <row r="130" s="2" customFormat="1"/>
+    <row r="131" s="2" customFormat="1"/>
+    <row r="132" s="2" customFormat="1"/>
+    <row r="133" s="2" customFormat="1"/>
+    <row r="134" s="2" customFormat="1"/>
+    <row r="135" s="2" customFormat="1"/>
+    <row r="136" s="2" customFormat="1"/>
+    <row r="137" s="2" customFormat="1"/>
+    <row r="138" s="2" customFormat="1"/>
+    <row r="139" s="2" customFormat="1"/>
+    <row r="140" s="2" customFormat="1"/>
+    <row r="141" s="2" customFormat="1"/>
+    <row r="142" s="2" customFormat="1"/>
+    <row r="143" s="2" customFormat="1"/>
+    <row r="144" s="2" customFormat="1"/>
+    <row r="145" s="2" customFormat="1"/>
+    <row r="146" s="2" customFormat="1"/>
+    <row r="147" s="2" customFormat="1"/>
+    <row r="148" s="2" customFormat="1"/>
+    <row r="149" s="2" customFormat="1"/>
+    <row r="150" s="2" customFormat="1"/>
+    <row r="151" s="2" customFormat="1"/>
+    <row r="152" s="2" customFormat="1"/>
+    <row r="153" s="2" customFormat="1"/>
+    <row r="154" s="2" customFormat="1"/>
+    <row r="155" s="2" customFormat="1"/>
+    <row r="156" s="2" customFormat="1"/>
+    <row r="157" s="2" customFormat="1"/>
+    <row r="158" s="2" customFormat="1"/>
+    <row r="159" s="2" customFormat="1"/>
+    <row r="160" s="2" customFormat="1"/>
+    <row r="161" s="2" customFormat="1"/>
+    <row r="162" s="2" customFormat="1"/>
+    <row r="163" s="2" customFormat="1"/>
+    <row r="164" s="2" customFormat="1"/>
+    <row r="165" s="2" customFormat="1"/>
+    <row r="166" s="2" customFormat="1"/>
+    <row r="167" s="2" customFormat="1"/>
+    <row r="168" s="2" customFormat="1"/>
+    <row r="169" s="2" customFormat="1"/>
+    <row r="170" s="2" customFormat="1"/>
+    <row r="171" s="2" customFormat="1"/>
+    <row r="172" s="2" customFormat="1"/>
+    <row r="173" s="2" customFormat="1"/>
+    <row r="174" s="2" customFormat="1"/>
+    <row r="175" s="2" customFormat="1"/>
+    <row r="176" s="2" customFormat="1"/>
+    <row r="177" s="2" customFormat="1"/>
+    <row r="178" s="2" customFormat="1"/>
+    <row r="179" s="2" customFormat="1"/>
+    <row r="180" s="3" customFormat="1"/>
+    <row r="181" s="3" customFormat="1"/>
+    <row r="182" s="3" customFormat="1"/>
+    <row r="183" s="3" customFormat="1"/>
+    <row r="184" s="3" customFormat="1"/>
+    <row r="185" s="3" customFormat="1"/>
+    <row r="186" s="3" customFormat="1"/>
+    <row r="187" s="3" customFormat="1"/>
+    <row r="188" s="3" customFormat="1"/>
+    <row r="189" s="3" customFormat="1"/>
+    <row r="190" s="3" customFormat="1"/>
+    <row r="191" s="3" customFormat="1"/>
+    <row r="192" s="3" customFormat="1"/>
+    <row r="193" s="3" customFormat="1"/>
+    <row r="194" s="3" customFormat="1"/>
+    <row r="195" s="3" customFormat="1"/>
+    <row r="196" s="3" customFormat="1"/>
+    <row r="197" s="3" customFormat="1"/>
+    <row r="198" s="3" customFormat="1"/>
+    <row r="199" s="3" customFormat="1"/>
+    <row r="200" s="3" customFormat="1"/>
+    <row r="201" s="3" customFormat="1"/>
+    <row r="202" s="3" customFormat="1"/>
+    <row r="203" s="3" customFormat="1"/>
+    <row r="204" s="3" customFormat="1"/>
+    <row r="205" s="3" customFormat="1"/>
+    <row r="206" s="3" customFormat="1"/>
+    <row r="207" s="3" customFormat="1"/>
+    <row r="208" s="3" customFormat="1"/>
+    <row r="209" s="3" customFormat="1"/>
+    <row r="210" s="3" customFormat="1"/>
+    <row r="211" s="3" customFormat="1"/>
+    <row r="212" s="3" customFormat="1"/>
+    <row r="213" s="3" customFormat="1"/>
+    <row r="214" s="3" customFormat="1"/>
+    <row r="215" s="3" customFormat="1"/>
+    <row r="216" s="3" customFormat="1"/>
+    <row r="217" s="3" customFormat="1"/>
+    <row r="218" s="3" customFormat="1"/>
+    <row r="219" s="3" customFormat="1"/>
+    <row r="220" s="3" customFormat="1"/>
+    <row r="221" s="3" customFormat="1"/>
+    <row r="222" s="3" customFormat="1"/>
+    <row r="223" s="3" customFormat="1"/>
+    <row r="224" s="3" customFormat="1"/>
+    <row r="225" s="3" customFormat="1"/>
+    <row r="226" s="3" customFormat="1"/>
+    <row r="227" s="3" customFormat="1"/>
+    <row r="228" s="3" customFormat="1"/>
+    <row r="229" s="3" customFormat="1"/>
+    <row r="230" s="3" customFormat="1"/>
+    <row r="231" s="3" customFormat="1"/>
+    <row r="232" s="3" customFormat="1"/>
+    <row r="233" s="3" customFormat="1"/>
+    <row r="234" s="3" customFormat="1"/>
+    <row r="235" s="3" customFormat="1"/>
+    <row r="236" s="3" customFormat="1"/>
+    <row r="237" s="3" customFormat="1"/>
+    <row r="238" s="3" customFormat="1"/>
+    <row r="239" s="3" customFormat="1"/>
+    <row r="240" s="3" customFormat="1"/>
+    <row r="241" s="3" customFormat="1"/>
+    <row r="242" s="3" customFormat="1"/>
+    <row r="243" s="3" customFormat="1"/>
+    <row r="244" s="3" customFormat="1"/>
+    <row r="245" s="3" customFormat="1"/>
+    <row r="246" s="3" customFormat="1"/>
+    <row r="247" s="3" customFormat="1"/>
+    <row r="248" s="3" customFormat="1"/>
+    <row r="249" s="3" customFormat="1"/>
+    <row r="250" s="3" customFormat="1"/>
+    <row r="251" s="3" customFormat="1"/>
+    <row r="252" s="3" customFormat="1"/>
+    <row r="253" s="3" customFormat="1"/>
+    <row r="254" s="3" customFormat="1"/>
+    <row r="255" s="3" customFormat="1"/>
+    <row r="256" s="3" customFormat="1"/>
+    <row r="257" s="3" customFormat="1"/>
+    <row r="258" s="3" customFormat="1"/>
+    <row r="259" s="3" customFormat="1"/>
+    <row r="260" s="3" customFormat="1"/>
+    <row r="261" s="3" customFormat="1"/>
+    <row r="262" s="3" customFormat="1"/>
+    <row r="263" s="3" customFormat="1"/>
+    <row r="264" s="3" customFormat="1"/>
+    <row r="265" s="3" customFormat="1"/>
+    <row r="266" s="3" customFormat="1"/>
+    <row r="267" s="3" customFormat="1"/>
+    <row r="268" s="3" customFormat="1"/>
+    <row r="269" s="3" customFormat="1"/>
+    <row r="270" s="3" customFormat="1"/>
+    <row r="271" s="3" customFormat="1"/>
+    <row r="272" s="3" customFormat="1"/>
+    <row r="273" s="3" customFormat="1"/>
+    <row r="274" s="3" customFormat="1"/>
+    <row r="275" s="3" customFormat="1"/>
+    <row r="276" s="3" customFormat="1"/>
+    <row r="277" s="3" customFormat="1"/>
+    <row r="278" s="3" customFormat="1"/>
+    <row r="279" s="3" customFormat="1"/>
+    <row r="280" s="3" customFormat="1"/>
+    <row r="281" s="3" customFormat="1"/>
+    <row r="282" s="3" customFormat="1"/>
+    <row r="283" s="3" customFormat="1"/>
+    <row r="284" s="3" customFormat="1"/>
+    <row r="285" s="3" customFormat="1"/>
+    <row r="286" s="3" customFormat="1"/>
+    <row r="287" s="3" customFormat="1"/>
+    <row r="288" s="3" customFormat="1"/>
+    <row r="289" s="3" customFormat="1"/>
+    <row r="290" s="3" customFormat="1"/>
+    <row r="291" s="3" customFormat="1"/>
+    <row r="292" s="3" customFormat="1"/>
+    <row r="293" s="3" customFormat="1"/>
+    <row r="294" s="3" customFormat="1"/>
+    <row r="295" s="3" customFormat="1"/>
+    <row r="296" s="3" customFormat="1"/>
+    <row r="297" s="3" customFormat="1"/>
+    <row r="298" s="3" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1488,14 +1499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+    <sheetView topLeftCell="B8" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
@@ -1505,7 +1516,7 @@
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="88.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
@@ -1542,7 +1553,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="135">
       <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1556,7 +1567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
@@ -1570,7 +1581,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="90">
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
@@ -1584,7 +1595,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="105">
       <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1598,7 +1609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="150">
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
@@ -1612,7 +1623,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="165">
       <c r="B8" s="7" t="s">
         <v>47</v>
       </c>
@@ -1626,7 +1637,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="150">
       <c r="B9" s="10" t="s">
         <v>50</v>
       </c>
@@ -1643,32 +1654,32 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" s="9" customFormat="1"/>
+    <row r="11" spans="1:6" s="9" customFormat="1"/>
+    <row r="12" spans="1:6" s="9" customFormat="1"/>
+    <row r="13" spans="1:6" s="9" customFormat="1"/>
+    <row r="14" spans="1:6" s="9" customFormat="1"/>
+    <row r="15" spans="1:6" s="9" customFormat="1"/>
+    <row r="16" spans="1:6" s="9" customFormat="1"/>
+    <row r="17" s="9" customFormat="1"/>
+    <row r="18" s="9" customFormat="1"/>
+    <row r="19" s="9" customFormat="1"/>
+    <row r="20" s="9" customFormat="1"/>
+    <row r="21" s="9" customFormat="1"/>
+    <row r="22" s="9" customFormat="1"/>
+    <row r="23" s="9" customFormat="1"/>
+    <row r="24" s="9" customFormat="1"/>
+    <row r="25" s="9" customFormat="1"/>
+    <row r="26" s="9" customFormat="1"/>
+    <row r="27" s="9" customFormat="1"/>
+    <row r="28" s="9" customFormat="1"/>
+    <row r="29" s="9" customFormat="1"/>
+    <row r="30" s="9" customFormat="1"/>
+    <row r="31" s="9" customFormat="1"/>
+    <row r="32" s="9" customFormat="1"/>
+    <row r="33" s="9" customFormat="1"/>
+    <row r="34" s="9" customFormat="1"/>
+    <row r="35" s="9" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1680,14 +1691,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
@@ -1697,7 +1708,7 @@
     <col min="6" max="6" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -1717,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="306" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1735,7 +1746,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="325.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="325.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -1751,7 +1762,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>61</v>
@@ -1767,7 +1778,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -1783,7 +1794,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -1799,7 +1810,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="105">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>70</v>
@@ -1815,7 +1826,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="120">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>73</v>
@@ -1831,7 +1842,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="90">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>76</v>
@@ -1847,7 +1858,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="105">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>79</v>
@@ -1863,7 +1874,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="120">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>82</v>
@@ -1879,15 +1890,23 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="75">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1895,7 +1914,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
     <sheet name="Kế hoạch" sheetId="2" r:id="rId2"/>
     <sheet name="Vay-Cho vay" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>Description</t>
   </si>
@@ -483,24 +483,41 @@
     <t>Closed</t>
   </si>
   <si>
-    <t>Giá trị phần trăm lãi nhập được 900%</t>
-  </si>
-  <si>
-    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
-2. Input giá trị phần trăm lãi 900%
-3. Input vào các trường còn lại 
-4. Chọn "Lưu"
--&gt; Actual: hiển thị giá trị phần trăm lãi là 900%</t>
-  </si>
-  <si>
-    <t>Giá trị tối đa của phần trăm lãi là 100%</t>
+    <t>Thông tin Tổng ngân sách hiển thị sai khi edit</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Kế hoạch" tạo mới 1 bản ghi
+2. Trong trường "Tổng ngân sách" nhập 1 dãy số có 12 số 
+ex: 123456789123
+3. Click vào button "Save"
+4. Vào Edit bản ghi vừa save
+-&gt; Bug: Thông tin về tổng ngân sách được hiển thị như sau : 123.456.789.</t>
+  </si>
+  <si>
+    <t>Khi user edit bản ghi, các thông tin trên bản ghi phải hiển thị đúng như user đã save</t>
+  </si>
+  <si>
+    <t>User tạo edit 1 bản ghi và tạo 2 category trùng nhau, khi save, hệ thống merge lại thành 1 nhưng sai data</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Kế hoạch" tạo mới thành công 1 bản ghi
+2. Vào edit bản ghi vừa tạo và add thêm 1 Category mới trùng với Category đã add trc đó
+3. Click button "Save"
+4. Vao view detail lại bản ghi vừa save
+-&gt; Bug: Hệ thống đã tự động merger 2 Category trùng nhau lại thành 1 nhưng data lưu vào bị sai (Hiện tại hệ thống tự nhân đôi category cũ rồi cộng kết quả với category mới)</t>
+  </si>
+  <si>
+    <t>Khi merger 2 category trùng nhau lại thành 1, dữ liệu của giá phải đúng (chỉ đc cộng 2 cái lại với nhau)</t>
+  </si>
+  <si>
+    <t>xz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -648,6 +665,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,7 +712,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -736,7 +756,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -834,6 +854,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -868,6 +889,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1043,14 +1065,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -1060,7 +1082,7 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1119,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1136,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1131,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="89.25" customHeight="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1148,7 +1170,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1179,7 +1201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1187,7 +1209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1198,295 +1220,295 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1"/>
-    <row r="11" spans="1:6" s="1" customFormat="1"/>
-    <row r="12" spans="1:6" s="1" customFormat="1"/>
-    <row r="13" spans="1:6" s="1" customFormat="1"/>
-    <row r="14" spans="1:6" s="1" customFormat="1"/>
-    <row r="15" spans="1:6" s="1" customFormat="1"/>
-    <row r="16" spans="1:6" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="1" customFormat="1"/>
-    <row r="28" s="1" customFormat="1"/>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" s="1" customFormat="1"/>
-    <row r="32" s="1" customFormat="1"/>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" s="1" customFormat="1"/>
-    <row r="50" s="1" customFormat="1"/>
-    <row r="51" s="1" customFormat="1"/>
-    <row r="52" s="1" customFormat="1"/>
-    <row r="53" s="1" customFormat="1"/>
-    <row r="54" s="1" customFormat="1"/>
-    <row r="55" s="1" customFormat="1"/>
-    <row r="56" s="1" customFormat="1"/>
-    <row r="57" s="1" customFormat="1"/>
-    <row r="58" s="1" customFormat="1"/>
-    <row r="59" s="1" customFormat="1"/>
-    <row r="60" s="1" customFormat="1"/>
-    <row r="61" s="1" customFormat="1"/>
-    <row r="62" s="1" customFormat="1"/>
-    <row r="63" s="1" customFormat="1"/>
-    <row r="64" s="1" customFormat="1"/>
-    <row r="65" s="1" customFormat="1"/>
-    <row r="66" s="1" customFormat="1"/>
-    <row r="67" s="1" customFormat="1"/>
-    <row r="68" s="1" customFormat="1"/>
-    <row r="69" s="1" customFormat="1"/>
-    <row r="70" s="1" customFormat="1"/>
-    <row r="71" s="1" customFormat="1"/>
-    <row r="72" s="1" customFormat="1"/>
-    <row r="73" s="1" customFormat="1"/>
-    <row r="74" s="1" customFormat="1"/>
-    <row r="75" s="1" customFormat="1"/>
-    <row r="76" s="1" customFormat="1"/>
-    <row r="77" s="1" customFormat="1"/>
-    <row r="78" s="1" customFormat="1"/>
-    <row r="79" s="1" customFormat="1"/>
-    <row r="80" s="1" customFormat="1"/>
-    <row r="81" s="1" customFormat="1"/>
-    <row r="82" s="1" customFormat="1"/>
-    <row r="83" s="1" customFormat="1"/>
-    <row r="84" s="1" customFormat="1"/>
-    <row r="85" s="1" customFormat="1"/>
-    <row r="86" s="1" customFormat="1"/>
-    <row r="87" s="1" customFormat="1"/>
-    <row r="88" s="1" customFormat="1"/>
-    <row r="89" s="1" customFormat="1"/>
-    <row r="90" s="1" customFormat="1"/>
-    <row r="91" s="1" customFormat="1"/>
-    <row r="92" s="1" customFormat="1"/>
-    <row r="93" s="1" customFormat="1"/>
-    <row r="94" s="1" customFormat="1"/>
-    <row r="95" s="1" customFormat="1"/>
-    <row r="96" s="1" customFormat="1"/>
-    <row r="97" s="1" customFormat="1"/>
-    <row r="98" s="1" customFormat="1"/>
-    <row r="99" s="1" customFormat="1"/>
-    <row r="100" s="1" customFormat="1"/>
-    <row r="101" s="1" customFormat="1"/>
-    <row r="102" s="1" customFormat="1"/>
-    <row r="103" s="1" customFormat="1"/>
-    <row r="104" s="1" customFormat="1"/>
-    <row r="105" s="1" customFormat="1"/>
-    <row r="106" s="1" customFormat="1"/>
-    <row r="107" s="1" customFormat="1"/>
-    <row r="108" s="1" customFormat="1"/>
-    <row r="109" s="1" customFormat="1"/>
-    <row r="110" s="1" customFormat="1"/>
-    <row r="111" s="1" customFormat="1"/>
-    <row r="112" s="1" customFormat="1"/>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="114" s="1" customFormat="1"/>
-    <row r="115" s="1" customFormat="1"/>
-    <row r="116" s="1" customFormat="1"/>
-    <row r="117" s="1" customFormat="1"/>
-    <row r="118" s="1" customFormat="1"/>
-    <row r="119" s="1" customFormat="1"/>
-    <row r="120" s="1" customFormat="1"/>
-    <row r="121" s="2" customFormat="1"/>
-    <row r="122" s="2" customFormat="1"/>
-    <row r="123" s="2" customFormat="1"/>
-    <row r="124" s="2" customFormat="1"/>
-    <row r="125" s="2" customFormat="1"/>
-    <row r="126" s="2" customFormat="1"/>
-    <row r="127" s="2" customFormat="1"/>
-    <row r="128" s="2" customFormat="1"/>
-    <row r="129" s="2" customFormat="1"/>
-    <row r="130" s="2" customFormat="1"/>
-    <row r="131" s="2" customFormat="1"/>
-    <row r="132" s="2" customFormat="1"/>
-    <row r="133" s="2" customFormat="1"/>
-    <row r="134" s="2" customFormat="1"/>
-    <row r="135" s="2" customFormat="1"/>
-    <row r="136" s="2" customFormat="1"/>
-    <row r="137" s="2" customFormat="1"/>
-    <row r="138" s="2" customFormat="1"/>
-    <row r="139" s="2" customFormat="1"/>
-    <row r="140" s="2" customFormat="1"/>
-    <row r="141" s="2" customFormat="1"/>
-    <row r="142" s="2" customFormat="1"/>
-    <row r="143" s="2" customFormat="1"/>
-    <row r="144" s="2" customFormat="1"/>
-    <row r="145" s="2" customFormat="1"/>
-    <row r="146" s="2" customFormat="1"/>
-    <row r="147" s="2" customFormat="1"/>
-    <row r="148" s="2" customFormat="1"/>
-    <row r="149" s="2" customFormat="1"/>
-    <row r="150" s="2" customFormat="1"/>
-    <row r="151" s="2" customFormat="1"/>
-    <row r="152" s="2" customFormat="1"/>
-    <row r="153" s="2" customFormat="1"/>
-    <row r="154" s="2" customFormat="1"/>
-    <row r="155" s="2" customFormat="1"/>
-    <row r="156" s="2" customFormat="1"/>
-    <row r="157" s="2" customFormat="1"/>
-    <row r="158" s="2" customFormat="1"/>
-    <row r="159" s="2" customFormat="1"/>
-    <row r="160" s="2" customFormat="1"/>
-    <row r="161" s="2" customFormat="1"/>
-    <row r="162" s="2" customFormat="1"/>
-    <row r="163" s="2" customFormat="1"/>
-    <row r="164" s="2" customFormat="1"/>
-    <row r="165" s="2" customFormat="1"/>
-    <row r="166" s="2" customFormat="1"/>
-    <row r="167" s="2" customFormat="1"/>
-    <row r="168" s="2" customFormat="1"/>
-    <row r="169" s="2" customFormat="1"/>
-    <row r="170" s="2" customFormat="1"/>
-    <row r="171" s="2" customFormat="1"/>
-    <row r="172" s="2" customFormat="1"/>
-    <row r="173" s="2" customFormat="1"/>
-    <row r="174" s="2" customFormat="1"/>
-    <row r="175" s="2" customFormat="1"/>
-    <row r="176" s="2" customFormat="1"/>
-    <row r="177" s="2" customFormat="1"/>
-    <row r="178" s="2" customFormat="1"/>
-    <row r="179" s="2" customFormat="1"/>
-    <row r="180" s="3" customFormat="1"/>
-    <row r="181" s="3" customFormat="1"/>
-    <row r="182" s="3" customFormat="1"/>
-    <row r="183" s="3" customFormat="1"/>
-    <row r="184" s="3" customFormat="1"/>
-    <row r="185" s="3" customFormat="1"/>
-    <row r="186" s="3" customFormat="1"/>
-    <row r="187" s="3" customFormat="1"/>
-    <row r="188" s="3" customFormat="1"/>
-    <row r="189" s="3" customFormat="1"/>
-    <row r="190" s="3" customFormat="1"/>
-    <row r="191" s="3" customFormat="1"/>
-    <row r="192" s="3" customFormat="1"/>
-    <row r="193" s="3" customFormat="1"/>
-    <row r="194" s="3" customFormat="1"/>
-    <row r="195" s="3" customFormat="1"/>
-    <row r="196" s="3" customFormat="1"/>
-    <row r="197" s="3" customFormat="1"/>
-    <row r="198" s="3" customFormat="1"/>
-    <row r="199" s="3" customFormat="1"/>
-    <row r="200" s="3" customFormat="1"/>
-    <row r="201" s="3" customFormat="1"/>
-    <row r="202" s="3" customFormat="1"/>
-    <row r="203" s="3" customFormat="1"/>
-    <row r="204" s="3" customFormat="1"/>
-    <row r="205" s="3" customFormat="1"/>
-    <row r="206" s="3" customFormat="1"/>
-    <row r="207" s="3" customFormat="1"/>
-    <row r="208" s="3" customFormat="1"/>
-    <row r="209" s="3" customFormat="1"/>
-    <row r="210" s="3" customFormat="1"/>
-    <row r="211" s="3" customFormat="1"/>
-    <row r="212" s="3" customFormat="1"/>
-    <row r="213" s="3" customFormat="1"/>
-    <row r="214" s="3" customFormat="1"/>
-    <row r="215" s="3" customFormat="1"/>
-    <row r="216" s="3" customFormat="1"/>
-    <row r="217" s="3" customFormat="1"/>
-    <row r="218" s="3" customFormat="1"/>
-    <row r="219" s="3" customFormat="1"/>
-    <row r="220" s="3" customFormat="1"/>
-    <row r="221" s="3" customFormat="1"/>
-    <row r="222" s="3" customFormat="1"/>
-    <row r="223" s="3" customFormat="1"/>
-    <row r="224" s="3" customFormat="1"/>
-    <row r="225" s="3" customFormat="1"/>
-    <row r="226" s="3" customFormat="1"/>
-    <row r="227" s="3" customFormat="1"/>
-    <row r="228" s="3" customFormat="1"/>
-    <row r="229" s="3" customFormat="1"/>
-    <row r="230" s="3" customFormat="1"/>
-    <row r="231" s="3" customFormat="1"/>
-    <row r="232" s="3" customFormat="1"/>
-    <row r="233" s="3" customFormat="1"/>
-    <row r="234" s="3" customFormat="1"/>
-    <row r="235" s="3" customFormat="1"/>
-    <row r="236" s="3" customFormat="1"/>
-    <row r="237" s="3" customFormat="1"/>
-    <row r="238" s="3" customFormat="1"/>
-    <row r="239" s="3" customFormat="1"/>
-    <row r="240" s="3" customFormat="1"/>
-    <row r="241" s="3" customFormat="1"/>
-    <row r="242" s="3" customFormat="1"/>
-    <row r="243" s="3" customFormat="1"/>
-    <row r="244" s="3" customFormat="1"/>
-    <row r="245" s="3" customFormat="1"/>
-    <row r="246" s="3" customFormat="1"/>
-    <row r="247" s="3" customFormat="1"/>
-    <row r="248" s="3" customFormat="1"/>
-    <row r="249" s="3" customFormat="1"/>
-    <row r="250" s="3" customFormat="1"/>
-    <row r="251" s="3" customFormat="1"/>
-    <row r="252" s="3" customFormat="1"/>
-    <row r="253" s="3" customFormat="1"/>
-    <row r="254" s="3" customFormat="1"/>
-    <row r="255" s="3" customFormat="1"/>
-    <row r="256" s="3" customFormat="1"/>
-    <row r="257" s="3" customFormat="1"/>
-    <row r="258" s="3" customFormat="1"/>
-    <row r="259" s="3" customFormat="1"/>
-    <row r="260" s="3" customFormat="1"/>
-    <row r="261" s="3" customFormat="1"/>
-    <row r="262" s="3" customFormat="1"/>
-    <row r="263" s="3" customFormat="1"/>
-    <row r="264" s="3" customFormat="1"/>
-    <row r="265" s="3" customFormat="1"/>
-    <row r="266" s="3" customFormat="1"/>
-    <row r="267" s="3" customFormat="1"/>
-    <row r="268" s="3" customFormat="1"/>
-    <row r="269" s="3" customFormat="1"/>
-    <row r="270" s="3" customFormat="1"/>
-    <row r="271" s="3" customFormat="1"/>
-    <row r="272" s="3" customFormat="1"/>
-    <row r="273" s="3" customFormat="1"/>
-    <row r="274" s="3" customFormat="1"/>
-    <row r="275" s="3" customFormat="1"/>
-    <row r="276" s="3" customFormat="1"/>
-    <row r="277" s="3" customFormat="1"/>
-    <row r="278" s="3" customFormat="1"/>
-    <row r="279" s="3" customFormat="1"/>
-    <row r="280" s="3" customFormat="1"/>
-    <row r="281" s="3" customFormat="1"/>
-    <row r="282" s="3" customFormat="1"/>
-    <row r="283" s="3" customFormat="1"/>
-    <row r="284" s="3" customFormat="1"/>
-    <row r="285" s="3" customFormat="1"/>
-    <row r="286" s="3" customFormat="1"/>
-    <row r="287" s="3" customFormat="1"/>
-    <row r="288" s="3" customFormat="1"/>
-    <row r="289" s="3" customFormat="1"/>
-    <row r="290" s="3" customFormat="1"/>
-    <row r="291" s="3" customFormat="1"/>
-    <row r="292" s="3" customFormat="1"/>
-    <row r="293" s="3" customFormat="1"/>
-    <row r="294" s="3" customFormat="1"/>
-    <row r="295" s="3" customFormat="1"/>
-    <row r="296" s="3" customFormat="1"/>
-    <row r="297" s="3" customFormat="1"/>
-    <row r="298" s="3" customFormat="1"/>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1499,14 +1521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
@@ -1516,7 +1538,7 @@
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1536,7 +1558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="88.5" customHeight="1">
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
@@ -1553,7 +1575,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="135">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1567,7 +1589,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1">
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
@@ -1581,7 +1603,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="90">
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
@@ -1595,7 +1617,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="105">
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1606,10 +1628,10 @@
         <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="150">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
@@ -1623,7 +1645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="165">
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>47</v>
       </c>
@@ -1634,10 +1656,13 @@
         <v>49</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="B9" s="10" t="s">
         <v>50</v>
       </c>
@@ -1654,32 +1679,62 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1"/>
-    <row r="11" spans="1:6" s="9" customFormat="1"/>
-    <row r="12" spans="1:6" s="9" customFormat="1"/>
-    <row r="13" spans="1:6" s="9" customFormat="1"/>
-    <row r="14" spans="1:6" s="9" customFormat="1"/>
-    <row r="15" spans="1:6" s="9" customFormat="1"/>
-    <row r="16" spans="1:6" s="9" customFormat="1"/>
-    <row r="17" s="9" customFormat="1"/>
-    <row r="18" s="9" customFormat="1"/>
-    <row r="19" s="9" customFormat="1"/>
-    <row r="20" s="9" customFormat="1"/>
-    <row r="21" s="9" customFormat="1"/>
-    <row r="22" s="9" customFormat="1"/>
-    <row r="23" s="9" customFormat="1"/>
-    <row r="24" s="9" customFormat="1"/>
-    <row r="25" s="9" customFormat="1"/>
-    <row r="26" s="9" customFormat="1"/>
-    <row r="27" s="9" customFormat="1"/>
-    <row r="28" s="9" customFormat="1"/>
-    <row r="29" s="9" customFormat="1"/>
-    <row r="30" s="9" customFormat="1"/>
-    <row r="31" s="9" customFormat="1"/>
-    <row r="32" s="9" customFormat="1"/>
-    <row r="33" s="9" customFormat="1"/>
-    <row r="34" s="9" customFormat="1"/>
-    <row r="35" s="9" customFormat="1"/>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
+        <v>41072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1691,14 +1746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
@@ -1708,7 +1763,7 @@
     <col min="6" max="6" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1">
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -1728,7 +1783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="306" customHeight="1">
+    <row r="2" spans="1:6" ht="306" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1746,7 +1801,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="325.5" customHeight="1">
+    <row r="3" spans="1:6" ht="325.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -1762,7 +1817,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>61</v>
@@ -1778,7 +1833,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="60">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -1794,7 +1849,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -1810,7 +1865,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="105">
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>70</v>
@@ -1826,7 +1881,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="120">
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>73</v>
@@ -1842,7 +1897,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="90">
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>76</v>
@@ -1858,7 +1913,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="105">
+    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>79</v>
@@ -1874,7 +1929,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="120">
+    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>82</v>
@@ -1890,23 +1945,15 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1914,7 +1961,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
@@ -627,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -668,6 +668,9 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,7 +825,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,7 +860,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1153,21 +1156,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" s="15" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>85</v>
+      <c r="E5" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1524,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1187,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>Description</t>
   </si>
@@ -512,6 +512,12 @@
   <si>
     <t>xz</t>
   </si>
+  <si>
+    <t>Force closed ở chức năng edit (khi input, edit price, save…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very serious </t>
+  </si>
 </sst>
 </file>
 
@@ -565,7 +571,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +587,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -670,6 +682,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1071,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,6 +1218,9 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1220,10 +1238,20 @@
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>Description</t>
   </si>
@@ -513,10 +513,17 @@
     <t>xz</t>
   </si>
   <si>
+    <t>có thể nhập số thập phân khi nhập số tiền cho mỗi category</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Kế hoạch" tạo mới bản ghi
+-&gt; Bug: Trong trường số tiền cho mỗi category, user có thể nhập số tiền có dấu chấm (số thập phân)</t>
+  </si>
+  <si>
+    <t>User không thể nhập đc số tiền có dấu chấm (số thập phân)</t>
+  </si>
+  <si>
     <t>Force closed ở chức năng edit (khi input, edit price, save…)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very serious </t>
   </si>
 </sst>
 </file>
@@ -571,7 +578,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,12 +594,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -682,9 +683,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1086,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1183,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1218,9 +1216,6 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1238,18 +1233,15 @@
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1548,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,7 +1679,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -1704,7 +1696,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>53</v>
@@ -1726,7 +1718,7 @@
         <v>89</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -1740,10 +1732,23 @@
         <v>92</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
@@ -838,7 +838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,7 +873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1084,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1547,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,7 +1679,7 @@
         <v>49</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>53</v>
@@ -1718,7 +1718,7 @@
         <v>89</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
         <v>92</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>96</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
     <sheet name="Kế hoạch" sheetId="2" r:id="rId2"/>
     <sheet name="Vay-Cho vay" sheetId="3" r:id="rId3"/>
+    <sheet name="Cảnh báo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
   <si>
     <t>Description</t>
   </si>
@@ -524,6 +525,9 @@
   </si>
   <si>
     <t>Force closed ở chức năng edit (khi input, edit price, save…)</t>
+  </si>
+  <si>
+    <t>Cảnh báo</t>
   </si>
 </sst>
 </file>
@@ -1547,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,4 +2014,89 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E1048576">
+      <formula1>"Open, Fixed, Closed, Validated"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
     <sheet name="Kế hoạch" sheetId="2" r:id="rId2"/>
     <sheet name="Vay-Cho vay" sheetId="3" r:id="rId3"/>
     <sheet name="Cảnh báo" sheetId="4" r:id="rId4"/>
+    <sheet name="Đồng bộ" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
   <si>
     <t>Description</t>
   </si>
@@ -528,6 +530,12 @@
   </si>
   <si>
     <t>Cảnh báo</t>
+  </si>
+  <si>
+    <t>ở trường category, k focus vào item đầu tiên trong combobox</t>
+  </si>
+  <si>
+    <t>Trường price của category đang gợi ý hiển thị, không hiển thị ngầm</t>
   </si>
 </sst>
 </file>
@@ -644,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -683,11 +691,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,20 +1187,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="15" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:6" s="14" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1551,37 +1565,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10" style="17" customWidth="1"/>
+    <col min="6" max="6" width="8" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1602,17 +1617,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1706,13 +1721,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
         <v>41072</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:6" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1721,11 +1736,11 @@
       <c r="D11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>90</v>
       </c>
@@ -1735,7 +1750,7 @@
       <c r="D12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1753,28 +1768,42 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1789,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,7 +2049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2099,4 +2128,28 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
   <si>
     <t>Description</t>
   </si>
@@ -537,6 +537,75 @@
   <si>
     <t>Trường price của category đang gợi ý hiển thị, không hiển thị ngầm</t>
   </si>
+  <si>
+    <t>Bỏ cài đặt Nhạc chuông cho phần thiết lập cảnh báo kế hoạch</t>
+  </si>
+  <si>
+    <t>1. Khởi chạy app thành công
+2. Vào cài đặt cảnh báo cho Kế hoạch
+3. Trong trường Cảnh báo khi đến, user chọn "Khác"
+4. Không nhập bất kỳ giá trị nào vào pop up
+5. Click button "Đồng ý"
+-&gt; Bug: Sau khi click button "Đồng ý" giá trị của trường cảnh báo khi đến là "%"</t>
+  </si>
+  <si>
+    <t>User có thể nhập không giới hạn "Cảnh báo khi đến"</t>
+  </si>
+  <si>
+    <t>Chỉ đc phép nhâp tối đa 3 số</t>
+  </si>
+  <si>
+    <t>Ký tự % sau ô text nhập giá trị % khác cho cảnh báo khi đến hơi bé</t>
+  </si>
+  <si>
+    <t>Nên cho to và rõ hơn 1 tí</t>
+  </si>
+  <si>
+    <t>Nhớ fix cho cả nhắc lại và cảnh báo trước khi đáo hạn</t>
+  </si>
+  <si>
+    <t>Nhớ fix cho cả trường hợp phút</t>
+  </si>
+  <si>
+    <t>Nhớ fix cho tất cả các trường khác</t>
+  </si>
+  <si>
+    <t>Trong mục cảnh báo cho kế hoạch, trường cảnh báo khi đến, user có thể tạo 1 giá trị là % hoặc 0%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi user chọn "Khác" và không input giá trị vào pop up hoặc input 0%, button  "Đồng ý" bị ẩn đi, user không thể click vào đc. Button này chỉ được hiện lên khi có giá trị đc input vào
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: Nếu không giải quyết đc như trên thì khi user k input giá trị nhưng vẫn click vào button "Đồng ý" thì giá trị hiển thi lên phải là giá trị default</t>
+    </r>
+  </si>
+  <si>
+    <t>Cảnh báo của kế hoạch chết</t>
+  </si>
+  <si>
+    <t>Cảnh báo vay và cho vay đang không có rung, tiếng, nên k check đc chức năng nhắc lại</t>
+  </si>
+  <si>
+    <t>Không gọi đc màn hình Thiết lập từ màn hình vay và cho vay</t>
+  </si>
+  <si>
+    <t>1. Cài đặt 1 cảnh báo khi đến hạn cho khoản vay hoặc cho vay
+2. Khi hệ thống cảnh báo cho user trên top màn hình điện thoại, user touch vào cảnh báo đấy
+3. Hệ thống sẽ đưa user vào trực tiếp màn hình vay và cho vay
+-&gt; Bug: tại màn hình này, user không thể gọi đc màn hình thiết lập</t>
+  </si>
+  <si>
+    <t>User phải gọi đc màn hình thiết lập trong trường hợp này</t>
+  </si>
 </sst>
 </file>
 
@@ -590,7 +659,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,6 +675,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -669,17 +744,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -702,6 +771,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,7 +1175,7 @@
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,20 +1259,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="14" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:6" s="12" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1565,245 +1637,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="10" style="17" customWidth="1"/>
-    <col min="6" max="6" width="8" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="10.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10" style="15" customWidth="1"/>
+    <col min="6" max="6" width="8" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="15" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
         <v>41072</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1819,7 +1891,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,23 +1904,23 @@
     <col min="6" max="6" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2049,77 +2121,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" s="7" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E1048576">
@@ -2127,6 +2275,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Đồng bộ" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="126">
   <si>
     <t>Description</t>
   </si>
@@ -606,12 +606,49 @@
   <si>
     <t>User phải gọi đc màn hình thiết lập trong trường hợp này</t>
   </si>
+  <si>
+    <t xml:space="preserve">Phần trăm lãi nhập được đến 999% </t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2.   Input giá trị phần trăm lãi: 999%
+3. Input vào các trường còn lại 
+--&gt; Actual: hiển thị phần trăm lãi là 999%</t>
+  </si>
+  <si>
+    <t>Phần trăm lại tối đa là 100%</t>
+  </si>
+  <si>
+    <t>Phần trăm lãi nhập được 0%</t>
+  </si>
+  <si>
+    <t>1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2.   Input giá trị phần trăm lãi: 0%
+3. Input vào các trường còn lại 
+--&gt; Actual: hiển thị phần trăm lãi là 0%</t>
+  </si>
+  <si>
+    <t>Nếu không có lãi xuất thì không nhập phần trăm và ngày đáo hạn.
+Vì vậy kông được nhập phần trăm lãi là 0%</t>
+  </si>
+  <si>
+    <t>Hiển thị ngày đáo hạn ở định khoản vay ( hoặc cho vay) khi không nhập phần trăm lãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chạy ứng dụng, vào chức năng "Vay-Cho vay"
+2. Input vào tất cả các trường trừ trường "Lãi xuất" và "Ngày đáo hạn"
+3. Chọn "Lưu"
+--&gt; Actual: hiển thị ngày đáo hạn ( giống ngày bắt đầu ) ở định khoản vay ( hoặc cho vay) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không có ngày đáo hạn mà hiển thị </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,7 +855,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -862,7 +899,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -960,7 +997,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -995,7 +1031,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1171,14 +1206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -1188,7 +1223,7 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1208,7 +1243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1260,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1277,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="12" customFormat="1" ht="89.25" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1311,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1293,7 +1328,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1307,7 +1342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1315,7 +1350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1361,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="45">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -1334,294 +1369,294 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="1" customFormat="1"/>
+    <row r="12" spans="1:6" s="1" customFormat="1"/>
+    <row r="13" spans="1:6" s="1" customFormat="1"/>
+    <row r="14" spans="1:6" s="1" customFormat="1"/>
+    <row r="15" spans="1:6" s="1" customFormat="1"/>
+    <row r="16" spans="1:6" s="1" customFormat="1"/>
+    <row r="17" s="1" customFormat="1"/>
+    <row r="18" s="1" customFormat="1"/>
+    <row r="19" s="1" customFormat="1"/>
+    <row r="20" s="1" customFormat="1"/>
+    <row r="21" s="1" customFormat="1"/>
+    <row r="22" s="1" customFormat="1"/>
+    <row r="23" s="1" customFormat="1"/>
+    <row r="24" s="1" customFormat="1"/>
+    <row r="25" s="1" customFormat="1"/>
+    <row r="26" s="1" customFormat="1"/>
+    <row r="27" s="1" customFormat="1"/>
+    <row r="28" s="1" customFormat="1"/>
+    <row r="29" s="1" customFormat="1"/>
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" s="1" customFormat="1"/>
+    <row r="32" s="1" customFormat="1"/>
+    <row r="33" s="1" customFormat="1"/>
+    <row r="34" s="1" customFormat="1"/>
+    <row r="35" s="1" customFormat="1"/>
+    <row r="36" s="1" customFormat="1"/>
+    <row r="37" s="1" customFormat="1"/>
+    <row r="38" s="1" customFormat="1"/>
+    <row r="39" s="1" customFormat="1"/>
+    <row r="40" s="1" customFormat="1"/>
+    <row r="41" s="1" customFormat="1"/>
+    <row r="42" s="1" customFormat="1"/>
+    <row r="43" s="1" customFormat="1"/>
+    <row r="44" s="1" customFormat="1"/>
+    <row r="45" s="1" customFormat="1"/>
+    <row r="46" s="1" customFormat="1"/>
+    <row r="47" s="1" customFormat="1"/>
+    <row r="48" s="1" customFormat="1"/>
+    <row r="49" s="1" customFormat="1"/>
+    <row r="50" s="1" customFormat="1"/>
+    <row r="51" s="1" customFormat="1"/>
+    <row r="52" s="1" customFormat="1"/>
+    <row r="53" s="1" customFormat="1"/>
+    <row r="54" s="1" customFormat="1"/>
+    <row r="55" s="1" customFormat="1"/>
+    <row r="56" s="1" customFormat="1"/>
+    <row r="57" s="1" customFormat="1"/>
+    <row r="58" s="1" customFormat="1"/>
+    <row r="59" s="1" customFormat="1"/>
+    <row r="60" s="1" customFormat="1"/>
+    <row r="61" s="1" customFormat="1"/>
+    <row r="62" s="1" customFormat="1"/>
+    <row r="63" s="1" customFormat="1"/>
+    <row r="64" s="1" customFormat="1"/>
+    <row r="65" s="1" customFormat="1"/>
+    <row r="66" s="1" customFormat="1"/>
+    <row r="67" s="1" customFormat="1"/>
+    <row r="68" s="1" customFormat="1"/>
+    <row r="69" s="1" customFormat="1"/>
+    <row r="70" s="1" customFormat="1"/>
+    <row r="71" s="1" customFormat="1"/>
+    <row r="72" s="1" customFormat="1"/>
+    <row r="73" s="1" customFormat="1"/>
+    <row r="74" s="1" customFormat="1"/>
+    <row r="75" s="1" customFormat="1"/>
+    <row r="76" s="1" customFormat="1"/>
+    <row r="77" s="1" customFormat="1"/>
+    <row r="78" s="1" customFormat="1"/>
+    <row r="79" s="1" customFormat="1"/>
+    <row r="80" s="1" customFormat="1"/>
+    <row r="81" s="1" customFormat="1"/>
+    <row r="82" s="1" customFormat="1"/>
+    <row r="83" s="1" customFormat="1"/>
+    <row r="84" s="1" customFormat="1"/>
+    <row r="85" s="1" customFormat="1"/>
+    <row r="86" s="1" customFormat="1"/>
+    <row r="87" s="1" customFormat="1"/>
+    <row r="88" s="1" customFormat="1"/>
+    <row r="89" s="1" customFormat="1"/>
+    <row r="90" s="1" customFormat="1"/>
+    <row r="91" s="1" customFormat="1"/>
+    <row r="92" s="1" customFormat="1"/>
+    <row r="93" s="1" customFormat="1"/>
+    <row r="94" s="1" customFormat="1"/>
+    <row r="95" s="1" customFormat="1"/>
+    <row r="96" s="1" customFormat="1"/>
+    <row r="97" s="1" customFormat="1"/>
+    <row r="98" s="1" customFormat="1"/>
+    <row r="99" s="1" customFormat="1"/>
+    <row r="100" s="1" customFormat="1"/>
+    <row r="101" s="1" customFormat="1"/>
+    <row r="102" s="1" customFormat="1"/>
+    <row r="103" s="1" customFormat="1"/>
+    <row r="104" s="1" customFormat="1"/>
+    <row r="105" s="1" customFormat="1"/>
+    <row r="106" s="1" customFormat="1"/>
+    <row r="107" s="1" customFormat="1"/>
+    <row r="108" s="1" customFormat="1"/>
+    <row r="109" s="1" customFormat="1"/>
+    <row r="110" s="1" customFormat="1"/>
+    <row r="111" s="1" customFormat="1"/>
+    <row r="112" s="1" customFormat="1"/>
+    <row r="113" s="1" customFormat="1"/>
+    <row r="114" s="1" customFormat="1"/>
+    <row r="115" s="1" customFormat="1"/>
+    <row r="116" s="1" customFormat="1"/>
+    <row r="117" s="1" customFormat="1"/>
+    <row r="118" s="1" customFormat="1"/>
+    <row r="119" s="1" customFormat="1"/>
+    <row r="120" s="1" customFormat="1"/>
+    <row r="121" s="2" customFormat="1"/>
+    <row r="122" s="2" customFormat="1"/>
+    <row r="123" s="2" customFormat="1"/>
+    <row r="124" s="2" customFormat="1"/>
+    <row r="125" s="2" customFormat="1"/>
+    <row r="126" s="2" customFormat="1"/>
+    <row r="127" s="2" customFormat="1"/>
+    <row r="128" s="2" customFormat="1"/>
+    <row r="129" s="2" customFormat="1"/>
+    <row r="130" s="2" customFormat="1"/>
+    <row r="131" s="2" customFormat="1"/>
+    <row r="132" s="2" customFormat="1"/>
+    <row r="133" s="2" customFormat="1"/>
+    <row r="134" s="2" customFormat="1"/>
+    <row r="135" s="2" customFormat="1"/>
+    <row r="136" s="2" customFormat="1"/>
+    <row r="137" s="2" customFormat="1"/>
+    <row r="138" s="2" customFormat="1"/>
+    <row r="139" s="2" customFormat="1"/>
+    <row r="140" s="2" customFormat="1"/>
+    <row r="141" s="2" customFormat="1"/>
+    <row r="142" s="2" customFormat="1"/>
+    <row r="143" s="2" customFormat="1"/>
+    <row r="144" s="2" customFormat="1"/>
+    <row r="145" s="2" customFormat="1"/>
+    <row r="146" s="2" customFormat="1"/>
+    <row r="147" s="2" customFormat="1"/>
+    <row r="148" s="2" customFormat="1"/>
+    <row r="149" s="2" customFormat="1"/>
+    <row r="150" s="2" customFormat="1"/>
+    <row r="151" s="2" customFormat="1"/>
+    <row r="152" s="2" customFormat="1"/>
+    <row r="153" s="2" customFormat="1"/>
+    <row r="154" s="2" customFormat="1"/>
+    <row r="155" s="2" customFormat="1"/>
+    <row r="156" s="2" customFormat="1"/>
+    <row r="157" s="2" customFormat="1"/>
+    <row r="158" s="2" customFormat="1"/>
+    <row r="159" s="2" customFormat="1"/>
+    <row r="160" s="2" customFormat="1"/>
+    <row r="161" s="2" customFormat="1"/>
+    <row r="162" s="2" customFormat="1"/>
+    <row r="163" s="2" customFormat="1"/>
+    <row r="164" s="2" customFormat="1"/>
+    <row r="165" s="2" customFormat="1"/>
+    <row r="166" s="2" customFormat="1"/>
+    <row r="167" s="2" customFormat="1"/>
+    <row r="168" s="2" customFormat="1"/>
+    <row r="169" s="2" customFormat="1"/>
+    <row r="170" s="2" customFormat="1"/>
+    <row r="171" s="2" customFormat="1"/>
+    <row r="172" s="2" customFormat="1"/>
+    <row r="173" s="2" customFormat="1"/>
+    <row r="174" s="2" customFormat="1"/>
+    <row r="175" s="2" customFormat="1"/>
+    <row r="176" s="2" customFormat="1"/>
+    <row r="177" s="2" customFormat="1"/>
+    <row r="178" s="2" customFormat="1"/>
+    <row r="179" s="2" customFormat="1"/>
+    <row r="180" s="3" customFormat="1"/>
+    <row r="181" s="3" customFormat="1"/>
+    <row r="182" s="3" customFormat="1"/>
+    <row r="183" s="3" customFormat="1"/>
+    <row r="184" s="3" customFormat="1"/>
+    <row r="185" s="3" customFormat="1"/>
+    <row r="186" s="3" customFormat="1"/>
+    <row r="187" s="3" customFormat="1"/>
+    <row r="188" s="3" customFormat="1"/>
+    <row r="189" s="3" customFormat="1"/>
+    <row r="190" s="3" customFormat="1"/>
+    <row r="191" s="3" customFormat="1"/>
+    <row r="192" s="3" customFormat="1"/>
+    <row r="193" s="3" customFormat="1"/>
+    <row r="194" s="3" customFormat="1"/>
+    <row r="195" s="3" customFormat="1"/>
+    <row r="196" s="3" customFormat="1"/>
+    <row r="197" s="3" customFormat="1"/>
+    <row r="198" s="3" customFormat="1"/>
+    <row r="199" s="3" customFormat="1"/>
+    <row r="200" s="3" customFormat="1"/>
+    <row r="201" s="3" customFormat="1"/>
+    <row r="202" s="3" customFormat="1"/>
+    <row r="203" s="3" customFormat="1"/>
+    <row r="204" s="3" customFormat="1"/>
+    <row r="205" s="3" customFormat="1"/>
+    <row r="206" s="3" customFormat="1"/>
+    <row r="207" s="3" customFormat="1"/>
+    <row r="208" s="3" customFormat="1"/>
+    <row r="209" s="3" customFormat="1"/>
+    <row r="210" s="3" customFormat="1"/>
+    <row r="211" s="3" customFormat="1"/>
+    <row r="212" s="3" customFormat="1"/>
+    <row r="213" s="3" customFormat="1"/>
+    <row r="214" s="3" customFormat="1"/>
+    <row r="215" s="3" customFormat="1"/>
+    <row r="216" s="3" customFormat="1"/>
+    <row r="217" s="3" customFormat="1"/>
+    <row r="218" s="3" customFormat="1"/>
+    <row r="219" s="3" customFormat="1"/>
+    <row r="220" s="3" customFormat="1"/>
+    <row r="221" s="3" customFormat="1"/>
+    <row r="222" s="3" customFormat="1"/>
+    <row r="223" s="3" customFormat="1"/>
+    <row r="224" s="3" customFormat="1"/>
+    <row r="225" s="3" customFormat="1"/>
+    <row r="226" s="3" customFormat="1"/>
+    <row r="227" s="3" customFormat="1"/>
+    <row r="228" s="3" customFormat="1"/>
+    <row r="229" s="3" customFormat="1"/>
+    <row r="230" s="3" customFormat="1"/>
+    <row r="231" s="3" customFormat="1"/>
+    <row r="232" s="3" customFormat="1"/>
+    <row r="233" s="3" customFormat="1"/>
+    <row r="234" s="3" customFormat="1"/>
+    <row r="235" s="3" customFormat="1"/>
+    <row r="236" s="3" customFormat="1"/>
+    <row r="237" s="3" customFormat="1"/>
+    <row r="238" s="3" customFormat="1"/>
+    <row r="239" s="3" customFormat="1"/>
+    <row r="240" s="3" customFormat="1"/>
+    <row r="241" s="3" customFormat="1"/>
+    <row r="242" s="3" customFormat="1"/>
+    <row r="243" s="3" customFormat="1"/>
+    <row r="244" s="3" customFormat="1"/>
+    <row r="245" s="3" customFormat="1"/>
+    <row r="246" s="3" customFormat="1"/>
+    <row r="247" s="3" customFormat="1"/>
+    <row r="248" s="3" customFormat="1"/>
+    <row r="249" s="3" customFormat="1"/>
+    <row r="250" s="3" customFormat="1"/>
+    <row r="251" s="3" customFormat="1"/>
+    <row r="252" s="3" customFormat="1"/>
+    <row r="253" s="3" customFormat="1"/>
+    <row r="254" s="3" customFormat="1"/>
+    <row r="255" s="3" customFormat="1"/>
+    <row r="256" s="3" customFormat="1"/>
+    <row r="257" s="3" customFormat="1"/>
+    <row r="258" s="3" customFormat="1"/>
+    <row r="259" s="3" customFormat="1"/>
+    <row r="260" s="3" customFormat="1"/>
+    <row r="261" s="3" customFormat="1"/>
+    <row r="262" s="3" customFormat="1"/>
+    <row r="263" s="3" customFormat="1"/>
+    <row r="264" s="3" customFormat="1"/>
+    <row r="265" s="3" customFormat="1"/>
+    <row r="266" s="3" customFormat="1"/>
+    <row r="267" s="3" customFormat="1"/>
+    <row r="268" s="3" customFormat="1"/>
+    <row r="269" s="3" customFormat="1"/>
+    <row r="270" s="3" customFormat="1"/>
+    <row r="271" s="3" customFormat="1"/>
+    <row r="272" s="3" customFormat="1"/>
+    <row r="273" s="3" customFormat="1"/>
+    <row r="274" s="3" customFormat="1"/>
+    <row r="275" s="3" customFormat="1"/>
+    <row r="276" s="3" customFormat="1"/>
+    <row r="277" s="3" customFormat="1"/>
+    <row r="278" s="3" customFormat="1"/>
+    <row r="279" s="3" customFormat="1"/>
+    <row r="280" s="3" customFormat="1"/>
+    <row r="281" s="3" customFormat="1"/>
+    <row r="282" s="3" customFormat="1"/>
+    <row r="283" s="3" customFormat="1"/>
+    <row r="284" s="3" customFormat="1"/>
+    <row r="285" s="3" customFormat="1"/>
+    <row r="286" s="3" customFormat="1"/>
+    <row r="287" s="3" customFormat="1"/>
+    <row r="288" s="3" customFormat="1"/>
+    <row r="289" s="3" customFormat="1"/>
+    <row r="290" s="3" customFormat="1"/>
+    <row r="291" s="3" customFormat="1"/>
+    <row r="292" s="3" customFormat="1"/>
+    <row r="293" s="3" customFormat="1"/>
+    <row r="294" s="3" customFormat="1"/>
+    <row r="295" s="3" customFormat="1"/>
+    <row r="296" s="3" customFormat="1"/>
+    <row r="297" s="3" customFormat="1"/>
+    <row r="298" s="3" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1634,14 +1669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" style="15" customWidth="1"/>
@@ -1652,7 +1687,7 @@
     <col min="7" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -1672,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="88.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1689,7 +1724,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="135">
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
@@ -1703,7 +1738,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="105.75" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1717,7 +1752,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="90">
       <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
@@ -1731,7 +1766,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="105">
       <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1745,7 +1780,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="150">
       <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
@@ -1759,7 +1794,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="165">
       <c r="B8" s="6" t="s">
         <v>47</v>
       </c>
@@ -1773,7 +1808,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="150">
       <c r="A9" s="8" t="s">
         <v>93</v>
       </c>
@@ -1793,12 +1828,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="6" customFormat="1">
       <c r="B10" s="14">
         <v>41072</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="135">
       <c r="B11" s="6" t="s">
         <v>87</v>
       </c>
@@ -1812,7 +1847,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="150">
       <c r="B12" s="6" t="s">
         <v>90</v>
       </c>
@@ -1826,7 +1861,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="75">
       <c r="B13" s="6" t="s">
         <v>94</v>
       </c>
@@ -1840,8 +1875,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="6" customFormat="1"/>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="B15" s="6" t="s">
         <v>99</v>
       </c>
@@ -1849,7 +1884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="B16" s="6" t="s">
         <v>100</v>
       </c>
@@ -1857,25 +1892,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="6" customFormat="1"/>
+    <row r="18" s="6" customFormat="1"/>
+    <row r="19" s="6" customFormat="1"/>
+    <row r="20" s="6" customFormat="1"/>
+    <row r="21" s="6" customFormat="1"/>
+    <row r="22" s="6" customFormat="1"/>
+    <row r="23" s="6" customFormat="1"/>
+    <row r="24" s="6" customFormat="1"/>
+    <row r="25" s="6" customFormat="1"/>
+    <row r="26" s="6" customFormat="1"/>
+    <row r="27" s="6" customFormat="1"/>
+    <row r="28" s="6" customFormat="1"/>
+    <row r="29" s="6" customFormat="1"/>
+    <row r="30" s="6" customFormat="1"/>
+    <row r="31" s="6" customFormat="1"/>
+    <row r="32" s="6" customFormat="1"/>
+    <row r="33" s="6" customFormat="1"/>
+    <row r="34" s="6" customFormat="1"/>
+    <row r="35" s="6" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1887,14 +1922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
@@ -1904,7 +1939,7 @@
     <col min="6" max="6" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="10" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1924,7 +1959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="306" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1942,7 +1977,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="325.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="325.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -1958,7 +1993,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>61</v>
@@ -1974,7 +2009,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -1990,7 +2025,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="105">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -2006,7 +2041,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="105">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>70</v>
@@ -2022,7 +2057,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="120">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>73</v>
@@ -2038,7 +2073,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="90">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>76</v>
@@ -2054,7 +2089,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="105">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>79</v>
@@ -2070,7 +2105,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="120">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>82</v>
@@ -2086,28 +2121,52 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="60">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="60">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="90">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
   </sheetData>
@@ -2118,14 +2177,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" style="15" customWidth="1"/>
@@ -2136,7 +2195,7 @@
     <col min="7" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -2156,7 +2215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="47.25" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>98</v>
       </c>
@@ -2167,7 +2226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="105">
       <c r="B3" s="6" t="s">
         <v>110</v>
       </c>
@@ -2184,7 +2243,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="50.25" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>103</v>
       </c>
@@ -2198,7 +2257,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="63" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>105</v>
       </c>
@@ -2212,7 +2271,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="6" customFormat="1">
       <c r="B6" s="16" t="s">
         <v>112</v>
       </c>
@@ -2220,7 +2279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="30">
       <c r="B7" s="16" t="s">
         <v>113</v>
       </c>
@@ -2228,7 +2287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="120">
       <c r="B8" s="6" t="s">
         <v>114</v>
       </c>
@@ -2242,32 +2301,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" s="6" customFormat="1"/>
+    <row r="10" spans="1:6" s="6" customFormat="1"/>
+    <row r="11" spans="1:6" s="6" customFormat="1"/>
+    <row r="12" spans="1:6" s="6" customFormat="1"/>
+    <row r="13" spans="1:6" s="6" customFormat="1"/>
+    <row r="14" spans="1:6" s="6" customFormat="1"/>
+    <row r="15" spans="1:6" s="6" customFormat="1"/>
+    <row r="16" spans="1:6" s="6" customFormat="1"/>
+    <row r="17" s="6" customFormat="1"/>
+    <row r="18" s="6" customFormat="1"/>
+    <row r="19" s="6" customFormat="1"/>
+    <row r="20" s="6" customFormat="1"/>
+    <row r="21" s="6" customFormat="1"/>
+    <row r="22" s="6" customFormat="1"/>
+    <row r="23" s="6" customFormat="1"/>
+    <row r="24" s="6" customFormat="1"/>
+    <row r="25" s="6" customFormat="1"/>
+    <row r="26" s="6" customFormat="1"/>
+    <row r="27" s="6" customFormat="1"/>
+    <row r="28" s="6" customFormat="1"/>
+    <row r="29" s="6" customFormat="1"/>
+    <row r="30" s="6" customFormat="1"/>
+    <row r="31" s="6" customFormat="1"/>
+    <row r="32" s="6" customFormat="1"/>
+    <row r="33" s="6" customFormat="1"/>
+    <row r="34" s="6" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E1048576">
@@ -2280,24 +2339,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
@@ -647,8 +647,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,7 +855,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -899,7 +899,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -997,6 +997,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1031,6 +1032,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1206,14 +1208,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
@@ -1223,7 +1225,7 @@
     <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1260,7 +1262,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1279,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1294,7 +1296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" ht="89.25" customHeight="1">
+    <row r="5" spans="1:6" s="12" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="228.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1328,7 +1330,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="45">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -1369,294 +1371,294 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1"/>
-    <row r="12" spans="1:6" s="1" customFormat="1"/>
-    <row r="13" spans="1:6" s="1" customFormat="1"/>
-    <row r="14" spans="1:6" s="1" customFormat="1"/>
-    <row r="15" spans="1:6" s="1" customFormat="1"/>
-    <row r="16" spans="1:6" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="1" customFormat="1"/>
-    <row r="28" s="1" customFormat="1"/>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" s="1" customFormat="1"/>
-    <row r="32" s="1" customFormat="1"/>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" s="1" customFormat="1"/>
-    <row r="50" s="1" customFormat="1"/>
-    <row r="51" s="1" customFormat="1"/>
-    <row r="52" s="1" customFormat="1"/>
-    <row r="53" s="1" customFormat="1"/>
-    <row r="54" s="1" customFormat="1"/>
-    <row r="55" s="1" customFormat="1"/>
-    <row r="56" s="1" customFormat="1"/>
-    <row r="57" s="1" customFormat="1"/>
-    <row r="58" s="1" customFormat="1"/>
-    <row r="59" s="1" customFormat="1"/>
-    <row r="60" s="1" customFormat="1"/>
-    <row r="61" s="1" customFormat="1"/>
-    <row r="62" s="1" customFormat="1"/>
-    <row r="63" s="1" customFormat="1"/>
-    <row r="64" s="1" customFormat="1"/>
-    <row r="65" s="1" customFormat="1"/>
-    <row r="66" s="1" customFormat="1"/>
-    <row r="67" s="1" customFormat="1"/>
-    <row r="68" s="1" customFormat="1"/>
-    <row r="69" s="1" customFormat="1"/>
-    <row r="70" s="1" customFormat="1"/>
-    <row r="71" s="1" customFormat="1"/>
-    <row r="72" s="1" customFormat="1"/>
-    <row r="73" s="1" customFormat="1"/>
-    <row r="74" s="1" customFormat="1"/>
-    <row r="75" s="1" customFormat="1"/>
-    <row r="76" s="1" customFormat="1"/>
-    <row r="77" s="1" customFormat="1"/>
-    <row r="78" s="1" customFormat="1"/>
-    <row r="79" s="1" customFormat="1"/>
-    <row r="80" s="1" customFormat="1"/>
-    <row r="81" s="1" customFormat="1"/>
-    <row r="82" s="1" customFormat="1"/>
-    <row r="83" s="1" customFormat="1"/>
-    <row r="84" s="1" customFormat="1"/>
-    <row r="85" s="1" customFormat="1"/>
-    <row r="86" s="1" customFormat="1"/>
-    <row r="87" s="1" customFormat="1"/>
-    <row r="88" s="1" customFormat="1"/>
-    <row r="89" s="1" customFormat="1"/>
-    <row r="90" s="1" customFormat="1"/>
-    <row r="91" s="1" customFormat="1"/>
-    <row r="92" s="1" customFormat="1"/>
-    <row r="93" s="1" customFormat="1"/>
-    <row r="94" s="1" customFormat="1"/>
-    <row r="95" s="1" customFormat="1"/>
-    <row r="96" s="1" customFormat="1"/>
-    <row r="97" s="1" customFormat="1"/>
-    <row r="98" s="1" customFormat="1"/>
-    <row r="99" s="1" customFormat="1"/>
-    <row r="100" s="1" customFormat="1"/>
-    <row r="101" s="1" customFormat="1"/>
-    <row r="102" s="1" customFormat="1"/>
-    <row r="103" s="1" customFormat="1"/>
-    <row r="104" s="1" customFormat="1"/>
-    <row r="105" s="1" customFormat="1"/>
-    <row r="106" s="1" customFormat="1"/>
-    <row r="107" s="1" customFormat="1"/>
-    <row r="108" s="1" customFormat="1"/>
-    <row r="109" s="1" customFormat="1"/>
-    <row r="110" s="1" customFormat="1"/>
-    <row r="111" s="1" customFormat="1"/>
-    <row r="112" s="1" customFormat="1"/>
-    <row r="113" s="1" customFormat="1"/>
-    <row r="114" s="1" customFormat="1"/>
-    <row r="115" s="1" customFormat="1"/>
-    <row r="116" s="1" customFormat="1"/>
-    <row r="117" s="1" customFormat="1"/>
-    <row r="118" s="1" customFormat="1"/>
-    <row r="119" s="1" customFormat="1"/>
-    <row r="120" s="1" customFormat="1"/>
-    <row r="121" s="2" customFormat="1"/>
-    <row r="122" s="2" customFormat="1"/>
-    <row r="123" s="2" customFormat="1"/>
-    <row r="124" s="2" customFormat="1"/>
-    <row r="125" s="2" customFormat="1"/>
-    <row r="126" s="2" customFormat="1"/>
-    <row r="127" s="2" customFormat="1"/>
-    <row r="128" s="2" customFormat="1"/>
-    <row r="129" s="2" customFormat="1"/>
-    <row r="130" s="2" customFormat="1"/>
-    <row r="131" s="2" customFormat="1"/>
-    <row r="132" s="2" customFormat="1"/>
-    <row r="133" s="2" customFormat="1"/>
-    <row r="134" s="2" customFormat="1"/>
-    <row r="135" s="2" customFormat="1"/>
-    <row r="136" s="2" customFormat="1"/>
-    <row r="137" s="2" customFormat="1"/>
-    <row r="138" s="2" customFormat="1"/>
-    <row r="139" s="2" customFormat="1"/>
-    <row r="140" s="2" customFormat="1"/>
-    <row r="141" s="2" customFormat="1"/>
-    <row r="142" s="2" customFormat="1"/>
-    <row r="143" s="2" customFormat="1"/>
-    <row r="144" s="2" customFormat="1"/>
-    <row r="145" s="2" customFormat="1"/>
-    <row r="146" s="2" customFormat="1"/>
-    <row r="147" s="2" customFormat="1"/>
-    <row r="148" s="2" customFormat="1"/>
-    <row r="149" s="2" customFormat="1"/>
-    <row r="150" s="2" customFormat="1"/>
-    <row r="151" s="2" customFormat="1"/>
-    <row r="152" s="2" customFormat="1"/>
-    <row r="153" s="2" customFormat="1"/>
-    <row r="154" s="2" customFormat="1"/>
-    <row r="155" s="2" customFormat="1"/>
-    <row r="156" s="2" customFormat="1"/>
-    <row r="157" s="2" customFormat="1"/>
-    <row r="158" s="2" customFormat="1"/>
-    <row r="159" s="2" customFormat="1"/>
-    <row r="160" s="2" customFormat="1"/>
-    <row r="161" s="2" customFormat="1"/>
-    <row r="162" s="2" customFormat="1"/>
-    <row r="163" s="2" customFormat="1"/>
-    <row r="164" s="2" customFormat="1"/>
-    <row r="165" s="2" customFormat="1"/>
-    <row r="166" s="2" customFormat="1"/>
-    <row r="167" s="2" customFormat="1"/>
-    <row r="168" s="2" customFormat="1"/>
-    <row r="169" s="2" customFormat="1"/>
-    <row r="170" s="2" customFormat="1"/>
-    <row r="171" s="2" customFormat="1"/>
-    <row r="172" s="2" customFormat="1"/>
-    <row r="173" s="2" customFormat="1"/>
-    <row r="174" s="2" customFormat="1"/>
-    <row r="175" s="2" customFormat="1"/>
-    <row r="176" s="2" customFormat="1"/>
-    <row r="177" s="2" customFormat="1"/>
-    <row r="178" s="2" customFormat="1"/>
-    <row r="179" s="2" customFormat="1"/>
-    <row r="180" s="3" customFormat="1"/>
-    <row r="181" s="3" customFormat="1"/>
-    <row r="182" s="3" customFormat="1"/>
-    <row r="183" s="3" customFormat="1"/>
-    <row r="184" s="3" customFormat="1"/>
-    <row r="185" s="3" customFormat="1"/>
-    <row r="186" s="3" customFormat="1"/>
-    <row r="187" s="3" customFormat="1"/>
-    <row r="188" s="3" customFormat="1"/>
-    <row r="189" s="3" customFormat="1"/>
-    <row r="190" s="3" customFormat="1"/>
-    <row r="191" s="3" customFormat="1"/>
-    <row r="192" s="3" customFormat="1"/>
-    <row r="193" s="3" customFormat="1"/>
-    <row r="194" s="3" customFormat="1"/>
-    <row r="195" s="3" customFormat="1"/>
-    <row r="196" s="3" customFormat="1"/>
-    <row r="197" s="3" customFormat="1"/>
-    <row r="198" s="3" customFormat="1"/>
-    <row r="199" s="3" customFormat="1"/>
-    <row r="200" s="3" customFormat="1"/>
-    <row r="201" s="3" customFormat="1"/>
-    <row r="202" s="3" customFormat="1"/>
-    <row r="203" s="3" customFormat="1"/>
-    <row r="204" s="3" customFormat="1"/>
-    <row r="205" s="3" customFormat="1"/>
-    <row r="206" s="3" customFormat="1"/>
-    <row r="207" s="3" customFormat="1"/>
-    <row r="208" s="3" customFormat="1"/>
-    <row r="209" s="3" customFormat="1"/>
-    <row r="210" s="3" customFormat="1"/>
-    <row r="211" s="3" customFormat="1"/>
-    <row r="212" s="3" customFormat="1"/>
-    <row r="213" s="3" customFormat="1"/>
-    <row r="214" s="3" customFormat="1"/>
-    <row r="215" s="3" customFormat="1"/>
-    <row r="216" s="3" customFormat="1"/>
-    <row r="217" s="3" customFormat="1"/>
-    <row r="218" s="3" customFormat="1"/>
-    <row r="219" s="3" customFormat="1"/>
-    <row r="220" s="3" customFormat="1"/>
-    <row r="221" s="3" customFormat="1"/>
-    <row r="222" s="3" customFormat="1"/>
-    <row r="223" s="3" customFormat="1"/>
-    <row r="224" s="3" customFormat="1"/>
-    <row r="225" s="3" customFormat="1"/>
-    <row r="226" s="3" customFormat="1"/>
-    <row r="227" s="3" customFormat="1"/>
-    <row r="228" s="3" customFormat="1"/>
-    <row r="229" s="3" customFormat="1"/>
-    <row r="230" s="3" customFormat="1"/>
-    <row r="231" s="3" customFormat="1"/>
-    <row r="232" s="3" customFormat="1"/>
-    <row r="233" s="3" customFormat="1"/>
-    <row r="234" s="3" customFormat="1"/>
-    <row r="235" s="3" customFormat="1"/>
-    <row r="236" s="3" customFormat="1"/>
-    <row r="237" s="3" customFormat="1"/>
-    <row r="238" s="3" customFormat="1"/>
-    <row r="239" s="3" customFormat="1"/>
-    <row r="240" s="3" customFormat="1"/>
-    <row r="241" s="3" customFormat="1"/>
-    <row r="242" s="3" customFormat="1"/>
-    <row r="243" s="3" customFormat="1"/>
-    <row r="244" s="3" customFormat="1"/>
-    <row r="245" s="3" customFormat="1"/>
-    <row r="246" s="3" customFormat="1"/>
-    <row r="247" s="3" customFormat="1"/>
-    <row r="248" s="3" customFormat="1"/>
-    <row r="249" s="3" customFormat="1"/>
-    <row r="250" s="3" customFormat="1"/>
-    <row r="251" s="3" customFormat="1"/>
-    <row r="252" s="3" customFormat="1"/>
-    <row r="253" s="3" customFormat="1"/>
-    <row r="254" s="3" customFormat="1"/>
-    <row r="255" s="3" customFormat="1"/>
-    <row r="256" s="3" customFormat="1"/>
-    <row r="257" s="3" customFormat="1"/>
-    <row r="258" s="3" customFormat="1"/>
-    <row r="259" s="3" customFormat="1"/>
-    <row r="260" s="3" customFormat="1"/>
-    <row r="261" s="3" customFormat="1"/>
-    <row r="262" s="3" customFormat="1"/>
-    <row r="263" s="3" customFormat="1"/>
-    <row r="264" s="3" customFormat="1"/>
-    <row r="265" s="3" customFormat="1"/>
-    <row r="266" s="3" customFormat="1"/>
-    <row r="267" s="3" customFormat="1"/>
-    <row r="268" s="3" customFormat="1"/>
-    <row r="269" s="3" customFormat="1"/>
-    <row r="270" s="3" customFormat="1"/>
-    <row r="271" s="3" customFormat="1"/>
-    <row r="272" s="3" customFormat="1"/>
-    <row r="273" s="3" customFormat="1"/>
-    <row r="274" s="3" customFormat="1"/>
-    <row r="275" s="3" customFormat="1"/>
-    <row r="276" s="3" customFormat="1"/>
-    <row r="277" s="3" customFormat="1"/>
-    <row r="278" s="3" customFormat="1"/>
-    <row r="279" s="3" customFormat="1"/>
-    <row r="280" s="3" customFormat="1"/>
-    <row r="281" s="3" customFormat="1"/>
-    <row r="282" s="3" customFormat="1"/>
-    <row r="283" s="3" customFormat="1"/>
-    <row r="284" s="3" customFormat="1"/>
-    <row r="285" s="3" customFormat="1"/>
-    <row r="286" s="3" customFormat="1"/>
-    <row r="287" s="3" customFormat="1"/>
-    <row r="288" s="3" customFormat="1"/>
-    <row r="289" s="3" customFormat="1"/>
-    <row r="290" s="3" customFormat="1"/>
-    <row r="291" s="3" customFormat="1"/>
-    <row r="292" s="3" customFormat="1"/>
-    <row r="293" s="3" customFormat="1"/>
-    <row r="294" s="3" customFormat="1"/>
-    <row r="295" s="3" customFormat="1"/>
-    <row r="296" s="3" customFormat="1"/>
-    <row r="297" s="3" customFormat="1"/>
-    <row r="298" s="3" customFormat="1"/>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1669,14 +1671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" style="15" customWidth="1"/>
@@ -1687,7 +1689,7 @@
     <col min="7" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -1707,7 +1709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="88.5" customHeight="1">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1724,7 +1726,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="135">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
@@ -1738,7 +1740,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="105.75" customHeight="1">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1752,7 +1754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="90">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>38</v>
       </c>
@@ -1766,7 +1768,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="105">
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
@@ -1780,7 +1782,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="150">
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>44</v>
       </c>
@@ -1794,7 +1796,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="165">
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>47</v>
       </c>
@@ -1808,7 +1810,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="150">
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>93</v>
       </c>
@@ -1828,12 +1830,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1">
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>41072</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="135">
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>87</v>
       </c>
@@ -1847,7 +1849,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="150">
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>90</v>
       </c>
@@ -1861,7 +1863,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="75">
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>94</v>
       </c>
@@ -1875,8 +1877,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1"/>
-    <row r="15" spans="1:6" s="6" customFormat="1" ht="30">
+    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>99</v>
       </c>
@@ -1884,7 +1886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" ht="30">
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>100</v>
       </c>
@@ -1892,25 +1894,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1"/>
-    <row r="18" s="6" customFormat="1"/>
-    <row r="19" s="6" customFormat="1"/>
-    <row r="20" s="6" customFormat="1"/>
-    <row r="21" s="6" customFormat="1"/>
-    <row r="22" s="6" customFormat="1"/>
-    <row r="23" s="6" customFormat="1"/>
-    <row r="24" s="6" customFormat="1"/>
-    <row r="25" s="6" customFormat="1"/>
-    <row r="26" s="6" customFormat="1"/>
-    <row r="27" s="6" customFormat="1"/>
-    <row r="28" s="6" customFormat="1"/>
-    <row r="29" s="6" customFormat="1"/>
-    <row r="30" s="6" customFormat="1"/>
-    <row r="31" s="6" customFormat="1"/>
-    <row r="32" s="6" customFormat="1"/>
-    <row r="33" s="6" customFormat="1"/>
-    <row r="34" s="6" customFormat="1"/>
-    <row r="35" s="6" customFormat="1"/>
+    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
@@ -1922,14 +1924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F14"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
@@ -1939,7 +1941,7 @@
     <col min="6" max="6" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1">
+    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1959,7 +1961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="306" customHeight="1">
+    <row r="2" spans="1:6" ht="306" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -1977,7 +1979,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="325.5" customHeight="1">
+    <row r="3" spans="1:6" ht="325.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -1989,11 +1991,11 @@
         <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>61</v>
@@ -2005,11 +2007,11 @@
         <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="60">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -2021,11 +2023,11 @@
         <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="105">
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>67</v>
@@ -2037,11 +2039,11 @@
         <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="105">
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>70</v>
@@ -2057,7 +2059,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="120">
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>73</v>
@@ -2073,7 +2075,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="90">
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>76</v>
@@ -2089,7 +2091,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="105">
+    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>79</v>
@@ -2105,7 +2107,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="120">
+    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>82</v>
@@ -2121,7 +2123,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>117</v>
@@ -2133,11 +2135,11 @@
         <v>119</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="60">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>120</v>
@@ -2149,11 +2151,11 @@
         <v>122</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="90">
+    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>123</v>
@@ -2177,14 +2179,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" style="15" customWidth="1"/>
@@ -2195,7 +2197,7 @@
     <col min="7" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -2215,7 +2217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" ht="47.25" customHeight="1">
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>98</v>
       </c>
@@ -2226,7 +2228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="105">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>110</v>
       </c>
@@ -2243,7 +2245,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" ht="50.25" customHeight="1">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>103</v>
       </c>
@@ -2257,7 +2259,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="63" customHeight="1">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>105</v>
       </c>
@@ -2271,7 +2273,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>112</v>
       </c>
@@ -2279,7 +2281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="30">
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>113</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="120">
+    <row r="8" spans="1:6" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>114</v>
       </c>
@@ -2301,32 +2303,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1"/>
-    <row r="10" spans="1:6" s="6" customFormat="1"/>
-    <row r="11" spans="1:6" s="6" customFormat="1"/>
-    <row r="12" spans="1:6" s="6" customFormat="1"/>
-    <row r="13" spans="1:6" s="6" customFormat="1"/>
-    <row r="14" spans="1:6" s="6" customFormat="1"/>
-    <row r="15" spans="1:6" s="6" customFormat="1"/>
-    <row r="16" spans="1:6" s="6" customFormat="1"/>
-    <row r="17" s="6" customFormat="1"/>
-    <row r="18" s="6" customFormat="1"/>
-    <row r="19" s="6" customFormat="1"/>
-    <row r="20" s="6" customFormat="1"/>
-    <row r="21" s="6" customFormat="1"/>
-    <row r="22" s="6" customFormat="1"/>
-    <row r="23" s="6" customFormat="1"/>
-    <row r="24" s="6" customFormat="1"/>
-    <row r="25" s="6" customFormat="1"/>
-    <row r="26" s="6" customFormat="1"/>
-    <row r="27" s="6" customFormat="1"/>
-    <row r="28" s="6" customFormat="1"/>
-    <row r="29" s="6" customFormat="1"/>
-    <row r="30" s="6" customFormat="1"/>
-    <row r="31" s="6" customFormat="1"/>
-    <row r="32" s="6" customFormat="1"/>
-    <row r="33" s="6" customFormat="1"/>
-    <row r="34" s="6" customFormat="1"/>
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E1048576">
@@ -2339,24 +2341,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1000,7 +1000,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1211,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1883,7 @@
         <v>99</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1891,7 +1891,7 @@
         <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,7 +1975,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -2182,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,7 +2225,7 @@
         <v>101</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
         <v>111</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>107</v>
@@ -2253,7 +2253,7 @@
         <v>104</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>109</v>
@@ -2267,7 +2267,7 @@
         <v>106</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>108</v>
@@ -2278,7 +2278,7 @@
         <v>112</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
         <v>113</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>116</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2331,7 @@
     <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E1048576 E2:E8">
       <formula1>"Open, Fixed, Closed, Validated"</formula1>
     </dataValidation>
   </dataValidations>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1000,7 +1000,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1674,7 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,7 +1975,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -2055,7 +2055,7 @@
         <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -2103,7 +2103,7 @@
         <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2119,7 +2119,7 @@
         <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -2167,7 +2167,7 @@
         <v>125</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -2182,7 +2182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1000,7 +1000,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1674,7 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,7 +1975,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -2055,7 +2055,7 @@
         <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -2103,7 +2103,7 @@
         <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2119,7 +2119,7 @@
         <v>84</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -2167,7 +2167,7 @@
         <v>125</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -2182,7 +2182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/documents/Test/System_Test.xlsx
+++ b/documents/Test/System_Test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7905" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Quản lý chi tiêu" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Vay-Cho vay" sheetId="3" r:id="rId3"/>
     <sheet name="Cảnh báo" sheetId="4" r:id="rId4"/>
     <sheet name="Đồng bộ" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Thống kê" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="137">
   <si>
     <t>Description</t>
   </si>
@@ -643,12 +643,77 @@
   <si>
     <t xml:space="preserve">Không có ngày đáo hạn mà hiển thị </t>
   </si>
+  <si>
+    <t>Pie chart</t>
+  </si>
+  <si>
+    <t>Text "Tổng tiền" nên để thẳng hàng với text của các category bên dưới</t>
+  </si>
+  <si>
+    <t>xem view detail bên dưới -&gt; Các thông số tính % không nên làm tròn, nên để 2 số sau dấu phẩy, và phải đảm bảo khi cộng lại =100%</t>
+  </si>
+  <si>
+    <t>Text trên màn hình "Thống kê trong tuần 17/12/2012-18/12/2012" bị tràn ra khỏi màn hình
+Expected: Để tránh bi tràn màn hình, chỉ để "17/12/2012 - 18/12/2012"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bên func "Thu chi" tạo 2 bản ghi như sau:
+- Ngày 18/12/2012
+  Giải trí
+       Phim          50.000
+  Mua sắm
+      Quần áo      100.000
+- Ngày 17/12/2012
+   Giải trí
+       Karaoke     50.000
+--&gt; Vào thống kê, xem thống kê trong tuần hoặc thống kê trong tháng, thông tin được hiển thị như sau:
+1. Pie chart đang biểu thị màu sai
+2. View detail bên dưới sai thông tin:
+      Tổng tiền                       200.000
+   Giải trí         50%              100.000
+       Phim       25%                50.000
+  Mua sắm     50%               100.000
+     Quan ao   50%               100.000 </t>
+  </si>
+  <si>
+    <t>Bar chart</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong tab Tuần, touch vào 1 bản ghi bất kỳ -&gt; show pop up, chọn thống kê giữa các tuần
+-&gt; Bug: Khi trong "Thu chi" chỉ có các bản ghi của 1 tuần, nếu user chọn "Thống kê giữa các tuần"
+-&gt; show MSG "Không có dữ liệu để so sánh
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Note: Bên tab Tháng đã xử lý đc bug này</t>
+    </r>
+  </si>
+  <si>
+    <t>Pop up "Thống kê chi phí"  và "So sánh giữa các…" nên co chiều rộng lại, hiện tại đang để quá to</t>
+  </si>
+  <si>
+    <t>Trong lòng thanh bar chart nên cho hiển thị số tiền (Kế hoạch, thực tế)
+Nếu user k lập kế hoạch cho 1 tháng nào đó -&gt; Hiển thị bar chart mờ, và cho số 0 vào đấy</t>
+  </si>
+  <si>
+    <t>Trong màn hình bar chart, Chú thích màu của Thực tế và Kế hoạch (Hiện tại đang để Thực chi-Dự kiến -&gt; sửa lại cho đúng) nên cho to, rõ ràng hơn, căn lề chuẩn hơn, viết tách nhau ra</t>
+  </si>
+  <si>
+    <t>Bên tab Tuần, khi user chọn so sánh giữa các tuần, pop up hiện thông tin sai</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,8 +760,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,6 +789,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -812,6 +889,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,7 +1055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1000,7 +1090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1211,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,12 +2444,389 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="87.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="53" style="21" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="17" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="261.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"Open, Fixed, Closed, Validated"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>